--- a/ゼミ用/02基本設計/テーブル定義書.xlsx
+++ b/ゼミ用/02基本設計/テーブル定義書.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="88">
   <si>
     <t xml:space="preserve">DB名</t>
   </si>
@@ -298,7 +298,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">:acter01~acter99 , </t>
+      <t xml:space="preserve">:acter001~acter999 , </t>
     </r>
     <r>
       <rPr>
@@ -324,7 +324,7 @@
     <t xml:space="preserve">説明</t>
   </si>
   <si>
-    <t xml:space="preserve">acter_conf</t>
+    <t xml:space="preserve">acter_info</t>
   </si>
   <si>
     <t xml:space="preserve">画像</t>
@@ -333,7 +333,7 @@
     <t xml:space="preserve">acter_img</t>
   </si>
   <si>
-    <t xml:space="preserve">base64</t>
+    <t xml:space="preserve">URL</t>
   </si>
   <si>
     <t xml:space="preserve">作品ID</t>
@@ -452,6 +452,74 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">～time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">9999 , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">半角英数字のみ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">グループID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">体系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:group0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">～group</t>
     </r>
     <r>
       <rPr>
@@ -601,63 +669,6 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">:acter001~acter999 , </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">半角英数字のみ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">対象ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">関係性マスタ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rel_mst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">関係性情報を管理するテーブル</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">体系</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">:relMst0001</t>
     </r>
     <r>
@@ -690,6 +701,27 @@
       </rPr>
       <t xml:space="preserve">半角英数字のみ</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">関係詳細</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rel_mst_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">対象ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">関係性マスタ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rel_mst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">関係性情報を管理するテーブル</t>
   </si>
   <si>
     <t xml:space="preserve">関係名</t>
@@ -749,74 +781,6 @@
     <t xml:space="preserve">グループ情報を管理するテーブル</t>
   </si>
   <si>
-    <t xml:space="preserve">グループID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group_id</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">体系</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:group0001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">～group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">9999 , </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">半角英数字のみ</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">グループ名</t>
   </si>
   <si>
@@ -824,6 +788,9 @@
   </si>
   <si>
     <t xml:space="preserve">詳細</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_info</t>
   </si>
   <si>
     <t xml:space="preserve">作品マスタ</t>
@@ -956,7 +923,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -985,15 +952,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1026,7 +1001,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AA1065"/>
+  <dimension ref="A1:AA1067"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1041,7 +1016,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="22.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="56.98"/>
@@ -1279,9 +1254,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1320,7 +1293,9 @@
         <v>25</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1499,30 +1474,30 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="6" t="s">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9" t="s">
         <v>34</v>
       </c>
       <c r="L13" s="2"/>
@@ -1548,23 +1523,23 @@
         <f aca="false">B13+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8" t="s">
         <v>37</v>
       </c>
       <c r="L14" s="2"/>
@@ -1584,27 +1559,27 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="n">
         <f aca="false">B14+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="5" t="s">
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L15" s="2"/>
@@ -1629,21 +1604,21 @@
       <c r="B16" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8" t="s">
         <v>42</v>
       </c>
       <c r="L16" s="2"/>
@@ -1665,26 +1640,29 @@
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="3" t="n">
+        <f aca="false">B16+1</f>
+        <v>5</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="6" t="s">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9" t="s">
         <v>46</v>
       </c>
       <c r="L17" s="2"/>
@@ -1704,28 +1682,31 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3" t="s">
+        <f aca="false">B17+1</f>
+        <v>6</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="6" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9" t="s">
         <v>49</v>
       </c>
       <c r="L18" s="2"/>
@@ -1747,27 +1728,30 @@
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="B19" s="3" t="n">
+        <f aca="false">B18+1</f>
+        <v>7</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="6" t="s">
-        <v>20</v>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1786,30 +1770,33 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="n">
+        <f aca="false">B19+1</f>
         <v>8</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
+      <c r="C20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="G20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1829,16 +1816,29 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="B21" s="3" t="n">
+        <f aca="false">B20+1</f>
+        <v>9</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1859,15 +1859,9 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1891,38 +1885,24 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1940,31 +1920,37 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
-      <c r="B24" s="3" t="n">
-        <v>1</v>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="6" t="s">
-        <v>49</v>
+        <v>8</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1986,16 +1972,17 @@
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="n">
-        <f aca="false">B24+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F25" s="3" t="s">
         <v>18</v>
       </c>
@@ -2005,8 +1992,8 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="5" t="s">
-        <v>23</v>
+      <c r="K25" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -2025,18 +2012,19 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="n">
+        <f aca="false">B25+1</f>
+        <v>2</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
         <v>18</v>
       </c>
@@ -2046,8 +2034,8 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="6" t="s">
-        <v>46</v>
+      <c r="K26" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -2066,16 +2054,17 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="n">
-        <v>4</v>
+        <f aca="false">B26+1</f>
+        <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>45</v>
@@ -2090,7 +2079,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="6" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -2109,30 +2098,33 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="n">
-        <v>5</v>
+        <f aca="false">B27+1</f>
+        <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="F28" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="3" t="n">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="K28" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -2152,16 +2144,29 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="B29" s="3" t="n">
+        <f aca="false">B28+1</f>
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -2182,15 +2187,9 @@
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2214,38 +2213,24 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
-      <c r="B31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -2263,31 +2248,37 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
-      <c r="B32" s="3" t="n">
-        <v>1</v>
+      <c r="B32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="6" t="s">
-        <v>60</v>
+        <v>8</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2309,7 +2300,7 @@
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>61</v>
@@ -2318,7 +2309,7 @@
         <v>62</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>18</v>
@@ -2329,8 +2320,8 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="5" t="s">
-        <v>23</v>
+      <c r="K33" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -2349,16 +2340,17 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>32</v>
+        <f aca="false">B33+1</f>
+        <v>2</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>45</v>
@@ -2373,7 +2365,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -2392,31 +2384,28 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="n">
-        <v>5</v>
+        <f aca="false">B34+1</f>
+        <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="6" t="s">
-        <v>63</v>
+      <c r="K35" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -2435,14 +2424,17 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>43</v>
+      <c r="B36" s="3" t="n">
+        <f aca="false">B35+1</f>
+        <v>4</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>45</v>
@@ -2457,7 +2449,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -2476,14 +2468,17 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
+      <c r="B37" s="3" t="n">
+        <f aca="false">B36+1</f>
+        <v>5</v>
+      </c>
       <c r="C37" s="3" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>45</v>
@@ -2494,9 +2489,11 @@
       <c r="G37" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -2518,13 +2515,14 @@
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="n">
+        <f aca="false">B37+1</f>
         <v>6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>45</v>
@@ -2539,7 +2537,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="6" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -2558,30 +2556,31 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="n">
+        <f aca="false">B38+1</f>
         <v>7</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="F39" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3"/>
+        <v>19</v>
+      </c>
       <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="K39" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -2599,18 +2598,33 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="B40" s="3" t="n">
+        <f aca="false">B39+1</f>
+        <v>8</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -2630,22 +2644,29 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="B41" s="3" t="n">
+        <f aca="false">B40+1</f>
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -2663,38 +2684,18 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
-      <c r="B42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -2712,32 +2713,24 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
-      <c r="B43" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -2755,30 +2748,37 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
-      <c r="B44" s="3" t="n">
-        <f aca="false">B43+1</f>
-        <v>2</v>
+      <c r="B44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="6" t="s">
-        <v>72</v>
+        <v>7</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -2797,17 +2797,19 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
-      <c r="B45" s="3"/>
+      <c r="B45" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="C45" s="3" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>18</v>
@@ -2819,7 +2821,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="6" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -2838,20 +2840,19 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="n">
-        <v>3</v>
+        <f aca="false">B45+1</f>
+        <v>2</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
         <v>18</v>
       </c>
@@ -2862,7 +2863,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="6" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -2881,30 +2882,33 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="n">
-        <v>4</v>
+        <f aca="false">B46+1</f>
+        <v>3</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="F47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" s="3" t="n">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
+      <c r="K47" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -2922,18 +2926,33 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="B48" s="3" t="n">
+        <f aca="false">B47+1</f>
+        <v>4</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -2953,22 +2972,29 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+      <c r="B49" s="3" t="n">
+        <f aca="false">B48+1</f>
+        <v>5</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -2986,38 +3012,18 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
-      <c r="B50" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -3035,32 +3041,24 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
-      <c r="B51" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="7" t="s">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="6" t="s">
+      <c r="D51" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="E51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -3078,29 +3076,38 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
-      <c r="B52" s="7" t="n">
-        <f aca="false">B51+1</f>
-        <v>2</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7" t="s">
-        <v>18</v>
+      <c r="B52" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -3118,22 +3125,32 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
-      <c r="B53" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="B53" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -3153,27 +3170,28 @@
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="3" t="s">
+      <c r="B54" s="8" t="n">
+        <f aca="false">B53+1</f>
+        <v>2</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="6" t="s">
-        <v>46</v>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -3192,31 +3210,26 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
-      <c r="B55" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="6" t="s">
-        <v>49</v>
+      <c r="B55" s="8" t="n">
+        <f aca="false">B54+1</f>
+        <v>3</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -3235,14 +3248,17 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
-      <c r="B56" s="7"/>
+      <c r="B56" s="8" t="n">
+        <f aca="false">B55+1</f>
+        <v>4</v>
+      </c>
       <c r="C56" s="3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>45</v>
@@ -3257,7 +3273,7 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="6" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -3276,30 +3292,33 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
-      <c r="B57" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7" t="s">
+      <c r="B57" s="8" t="n">
+        <f aca="false">B56+1</f>
+        <v>5</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
+      <c r="G57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -3317,18 +3336,33 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
+      <c r="B58" s="8" t="n">
+        <f aca="false">B57+1</f>
+        <v>6</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -3348,20 +3382,29 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
+      <c r="B59" s="8" t="n">
+        <f aca="false">B58+1</f>
+        <v>7</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -3379,38 +3422,18 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
-      <c r="B60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -3428,32 +3451,22 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
-      <c r="B61" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -3473,28 +3486,35 @@
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
-      <c r="B62" s="3" t="n">
-        <f aca="false">B61+1</f>
-        <v>2</v>
+      <c r="B62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="5" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -3516,16 +3536,16 @@
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
       <c r="B63" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>18</v>
@@ -3537,7 +3557,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="6" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -3556,30 +3576,31 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="n">
-        <v>5</v>
+        <f aca="false">B63+1</f>
+        <v>2</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H64" s="3" t="n">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
+      <c r="K64" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -3597,18 +3618,33 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
+      <c r="B65" s="3" t="n">
+        <f aca="false">B64+1</f>
+        <v>3</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -3628,16 +3664,29 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
+      <c r="B66" s="3" t="n">
+        <f aca="false">B65+1</f>
+        <v>4</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -3657,16 +3706,16 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -3686,54 +3735,74 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -3743,16 +3812,16 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -3762,159 +3831,139 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
-      <c r="Z72" s="2"/>
-      <c r="AA72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
       <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
       <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
       <c r="L75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
       <c r="L76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-      <c r="AA77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
-      <c r="AA78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -3934,16 +3983,16 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -3963,16 +4012,16 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -3992,16 +4041,16 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -4021,16 +4070,16 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -4050,16 +4099,16 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -4079,12 +4128,12 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
@@ -4108,16 +4157,16 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -4137,16 +4186,16 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -4166,16 +4215,16 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -4195,16 +4244,16 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -4224,16 +4273,16 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -4253,16 +4302,16 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -4282,16 +4331,16 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -4311,12 +4360,12 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
@@ -4340,16 +4389,16 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -4369,16 +4418,16 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -4398,16 +4447,16 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -4427,16 +4476,16 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -4456,16 +4505,16 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -4485,16 +4534,16 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -4514,16 +4563,16 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -4543,16 +4592,16 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -4572,12 +4621,12 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
@@ -4601,16 +4650,16 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -4630,6 +4679,16 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -4649,16 +4708,16 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -4678,16 +4737,6 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -4707,16 +4756,16 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
-      <c r="K107" s="10"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -4736,16 +4785,16 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="10"/>
-      <c r="K108" s="10"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -4765,16 +4814,16 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -4794,16 +4843,16 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -4823,16 +4872,16 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
-      <c r="K111" s="10"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -4852,16 +4901,16 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -4881,12 +4930,12 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
       <c r="J113" s="12"/>
@@ -4910,16 +4959,16 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -4939,6 +4988,16 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="14"/>
+      <c r="K115" s="14"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -4958,16 +5017,16 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -4987,16 +5046,6 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="10"/>
-      <c r="K117" s="10"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -5016,16 +5065,16 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="10"/>
-      <c r="K118" s="10"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -5045,16 +5094,16 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="10"/>
-      <c r="K119" s="10"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -5074,16 +5123,16 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="10"/>
-      <c r="K120" s="10"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -5103,12 +5152,12 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
       <c r="J121" s="12"/>
@@ -5132,16 +5181,16 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="10"/>
-      <c r="K122" s="10"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -5161,16 +5210,16 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="14"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -5190,16 +5239,16 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -5219,16 +5268,16 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="10"/>
-      <c r="K125" s="10"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -5248,16 +5297,16 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="10"/>
-      <c r="K126" s="10"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -5277,16 +5326,16 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="10"/>
-      <c r="K127" s="10"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -5306,16 +5355,16 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -5335,12 +5384,12 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
       <c r="J129" s="12"/>
@@ -5364,16 +5413,16 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -5393,16 +5442,16 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -5422,16 +5471,16 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -5451,16 +5500,16 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="10"/>
-      <c r="K133" s="10"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -5480,16 +5529,16 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="10"/>
-      <c r="K134" s="10"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -5509,16 +5558,16 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="10"/>
-      <c r="J135" s="10"/>
-      <c r="K135" s="10"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -5538,16 +5587,16 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="10"/>
-      <c r="K136" s="10"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -5567,16 +5616,16 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="10"/>
-      <c r="K137" s="10"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -5596,12 +5645,12 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
       <c r="J138" s="12"/>
@@ -5625,16 +5674,16 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="10"/>
-      <c r="K139" s="10"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -5654,16 +5703,16 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="14"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -5683,16 +5732,16 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -6870,7 +6919,7 @@
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
     </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6899,7 +6948,7 @@
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
     </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -32274,8 +32323,64 @@
       <c r="Z1057" s="2"/>
       <c r="AA1057" s="2"/>
     </row>
-    <row r="1058" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1059" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1058" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1058" s="2"/>
+      <c r="B1058" s="2"/>
+      <c r="C1058" s="2"/>
+      <c r="D1058" s="2"/>
+      <c r="E1058" s="2"/>
+      <c r="F1058" s="2"/>
+      <c r="G1058" s="2"/>
+      <c r="H1058" s="2"/>
+      <c r="I1058" s="2"/>
+      <c r="J1058" s="2"/>
+      <c r="K1058" s="2"/>
+      <c r="L1058" s="2"/>
+      <c r="M1058" s="2"/>
+      <c r="N1058" s="2"/>
+      <c r="O1058" s="2"/>
+      <c r="P1058" s="2"/>
+      <c r="Q1058" s="2"/>
+      <c r="R1058" s="2"/>
+      <c r="S1058" s="2"/>
+      <c r="T1058" s="2"/>
+      <c r="U1058" s="2"/>
+      <c r="V1058" s="2"/>
+      <c r="W1058" s="2"/>
+      <c r="X1058" s="2"/>
+      <c r="Y1058" s="2"/>
+      <c r="Z1058" s="2"/>
+      <c r="AA1058" s="2"/>
+    </row>
+    <row r="1059" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1059" s="2"/>
+      <c r="B1059" s="2"/>
+      <c r="C1059" s="2"/>
+      <c r="D1059" s="2"/>
+      <c r="E1059" s="2"/>
+      <c r="F1059" s="2"/>
+      <c r="G1059" s="2"/>
+      <c r="H1059" s="2"/>
+      <c r="I1059" s="2"/>
+      <c r="J1059" s="2"/>
+      <c r="K1059" s="2"/>
+      <c r="L1059" s="2"/>
+      <c r="M1059" s="2"/>
+      <c r="N1059" s="2"/>
+      <c r="O1059" s="2"/>
+      <c r="P1059" s="2"/>
+      <c r="Q1059" s="2"/>
+      <c r="R1059" s="2"/>
+      <c r="S1059" s="2"/>
+      <c r="T1059" s="2"/>
+      <c r="U1059" s="2"/>
+      <c r="V1059" s="2"/>
+      <c r="W1059" s="2"/>
+      <c r="X1059" s="2"/>
+      <c r="Y1059" s="2"/>
+      <c r="Z1059" s="2"/>
+      <c r="AA1059" s="2"/>
+    </row>
     <row r="1060" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1061" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1062" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -32343,6 +32448,8 @@
     <row r="1124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.35625" bottom="0.35625" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ゼミ用/02基本設計/テーブル定義書.xlsx
+++ b/ゼミ用/02基本設計/テーブル定義書.xlsx
@@ -724,7 +724,7 @@
     <t xml:space="preserve">関係性情報を管理するテーブル</t>
   </si>
   <si>
-    <t xml:space="preserve">関係名</t>
+    <t xml:space="preserve">関係性名</t>
   </si>
   <si>
     <t xml:space="preserve">rel_mst_name</t>
@@ -32453,7 +32453,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.35625" bottom="0.35625" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/ゼミ用/02基本設計/テーブル定義書.xlsx
+++ b/ゼミ用/02基本設計/テーブル定義書.xlsx
@@ -9,6 +9,8 @@
   </bookViews>
   <sheets>
     <sheet name="テーブル定義書" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="cor_user" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="マスタ" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,12 +22,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="110">
   <si>
     <t xml:space="preserve">DB名</t>
   </si>
   <si>
     <t xml:space="preserve">correlation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ユーザ名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g20e38h41AAbf</t>
   </si>
   <si>
     <t xml:space="preserve">ユーザテーブル</t>
@@ -118,7 +132,7 @@
     <t xml:space="preserve">〇</t>
   </si>
   <si>
-    <t xml:space="preserve">TEXT</t>
+    <t xml:space="preserve">VARCHAR</t>
   </si>
   <si>
     <r>
@@ -149,7 +163,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">:user0001</t>
+      <t xml:space="preserve">:user000001</t>
     </r>
     <r>
       <rPr>
@@ -159,7 +173,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">～user</t>
+      <t xml:space="preserve">～</t>
     </r>
     <r>
       <rPr>
@@ -169,7 +183,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9999 , </t>
+      <t xml:space="preserve">user999999 , </t>
     </r>
     <r>
       <rPr>
@@ -181,9 +195,6 @@
       </rPr>
       <t xml:space="preserve">半角英数字のみ</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザ名</t>
   </si>
   <si>
     <t xml:space="preserve">user_name</t>
@@ -233,7 +244,7 @@
     <t xml:space="preserve">version</t>
   </si>
   <si>
-    <t xml:space="preserve">INTEGER</t>
+    <t xml:space="preserve">SMALLINT</t>
   </si>
   <si>
     <t xml:space="preserve">登場人物マスタ</t>
@@ -730,48 +741,6 @@
     <t xml:space="preserve">rel_mst_name</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">体系</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:user000001~user999999 , </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">半角英数字のみ</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">グループマスタ</t>
   </si>
   <si>
@@ -804,15 +773,76 @@
   <si>
     <t xml:space="preserve">opus_name</t>
   </si>
+  <si>
+    <t xml:space="preserve">符号なし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0埋め</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半角英数字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主キー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外部キー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テーブル論理名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テーブル物理名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ここより下は書き込み禁止。行が必要なな場合はコピー挿入して増やしてください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TINYINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">符号付きの範囲は -128 から 127 。符号なしの範囲は 0 から 255 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">符号付きの範囲は -32768 から 32767 。符号なしの範囲は 0 から 65535 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDIUMINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">符号付きの範囲は -8388608 から 8388607 。 符号なしの範囲は 0 から 16777215 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">符号付きの範囲は -2147483648 から 2147483647 。 符号なしの範囲は 0 から 4294967295 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIGINT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">符号付きの範囲は -9223372036854775808 から 9223372036854775807 。 符号なしの範囲は 0 から 18446744073709551615 。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">範囲は 0 から 65,535</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -865,6 +895,13 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -923,7 +960,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -984,6 +1021,26 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,6 +1050,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1001,7 +1118,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AA1067"/>
+  <dimension ref="A1:AA1068"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1061,9 +1178,9 @@
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1088,10 +1205,18 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1117,15 +1242,9 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1151,36 +1270,22 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1200,29 +1305,35 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
-      <c r="B6" s="3" t="n">
-        <v>1</v>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1244,25 +1355,30 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="n">
-        <f aca="false">B6+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="n">
+        <v>10</v>
+      </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="5" t="s">
-        <v>23</v>
+      <c r="K7" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1284,25 +1400,28 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="n">
-        <v>3</v>
+        <f aca="false">B7+1</f>
+        <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="n">
+        <v>100</v>
+      </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="K8" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1323,25 +1442,25 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="n">
+        <v>100</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="2"/>
@@ -1361,18 +1480,30 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="B10" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1390,18 +1521,12 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1425,38 +1550,24 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1476,29 +1587,35 @@
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
-      <c r="B13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="K13" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1517,29 +1634,32 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="n">
-        <f aca="false">B13+1</f>
-        <v>2</v>
-      </c>
-      <c r="C14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="F14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="I14" s="8" t="n">
+        <v>8</v>
+      </c>
       <c r="J14" s="8"/>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>37</v>
       </c>
       <c r="L14" s="2"/>
@@ -1559,11 +1679,11 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="n">
         <f aca="false">B14+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>38</v>
@@ -1572,15 +1692,19 @@
         <v>39</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
-        <v>19</v>
+      <c r="F15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="I15" s="8" t="n">
+        <v>100</v>
+      </c>
       <c r="J15" s="8"/>
-      <c r="K15" s="7" t="s">
-        <v>23</v>
+      <c r="K15" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1599,27 +1723,30 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="n">
-        <v>4</v>
+        <f aca="false">B15+1</f>
+        <v>3</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
-        <v>19</v>
+      <c r="G16" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="I16" s="8" t="n">
+        <v>1200</v>
+      </c>
       <c r="J16" s="8"/>
-      <c r="K16" s="8" t="s">
-        <v>42</v>
+      <c r="K16" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1638,11 +1765,10 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="n">
-        <f aca="false">B16+1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>43</v>
@@ -1650,20 +1776,18 @@
       <c r="D17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1686,25 +1810,27 @@
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="n">
         <f aca="false">B17+1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="F18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="n">
+        <v>8</v>
+      </c>
       <c r="J18" s="8"/>
       <c r="K18" s="9" t="s">
         <v>49</v>
@@ -1730,7 +1856,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="n">
         <f aca="false">B18+1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>50</v>
@@ -1739,16 +1865,18 @@
         <v>51</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10" t="n">
+        <v>8</v>
+      </c>
       <c r="J19" s="8"/>
       <c r="K19" s="9" t="s">
         <v>52</v>
@@ -1774,28 +1902,30 @@
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="n">
         <f aca="false">B19+1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="I20" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="J20" s="8"/>
       <c r="K20" s="9" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1814,31 +1944,35 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="n">
         <f aca="false">B20+1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="F21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="K21" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1858,16 +1992,29 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="B22" s="3" t="n">
+        <f aca="false">B21+1</f>
+        <v>9</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1888,15 +2035,9 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1920,38 +2061,24 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1969,31 +2096,37 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
-      <c r="B25" s="3" t="n">
-        <v>1</v>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -2012,30 +2145,33 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="n">
-        <f aca="false">B25+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F26" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3" t="n">
+        <v>8</v>
+      </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="5" t="s">
-        <v>23</v>
+      <c r="K26" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -2054,32 +2190,32 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="n">
         <f aca="false">B26+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="3" t="n">
+        <v>100</v>
+      </c>
       <c r="J27" s="3"/>
-      <c r="K27" s="6" t="s">
-        <v>46</v>
+      <c r="K27" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -2098,32 +2234,34 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="n">
         <f aca="false">B27+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3" t="n">
+        <v>8</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="6" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -2142,31 +2280,35 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="n">
         <f aca="false">B28+1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F29" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="n">
+        <v>10</v>
+      </c>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="K29" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -2186,16 +2328,29 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="B30" s="3" t="n">
+        <f aca="false">B29+1</f>
+        <v>5</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -2216,15 +2371,9 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2248,38 +2397,24 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -2297,31 +2432,37 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
-      <c r="B33" s="3" t="n">
-        <v>1</v>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -2343,8 +2484,7 @@
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="n">
-        <f aca="false">B33+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>64</v>
@@ -2353,16 +2493,18 @@
         <v>65</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="3" t="n">
+        <v>9</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="6" t="s">
         <v>66</v>
@@ -2388,7 +2530,7 @@
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="n">
         <f aca="false">B34+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>67</v>
@@ -2396,16 +2538,22 @@
       <c r="D35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G35" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="3" t="n">
+        <v>10</v>
+      </c>
       <c r="J35" s="3"/>
-      <c r="K35" s="5" t="s">
-        <v>23</v>
+      <c r="K35" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -2424,32 +2572,30 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="n">
         <f aca="false">B35+1</f>
-        <v>4</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="I36" s="3" t="n">
+        <v>1200</v>
+      </c>
       <c r="J36" s="3"/>
-      <c r="K36" s="6" t="s">
-        <v>34</v>
+      <c r="K36" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -2468,32 +2614,34 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="n">
         <f aca="false">B36+1</f>
-        <v>5</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>69</v>
+        <v>4</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="I37" s="3" t="n">
+        <v>8</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -2512,32 +2660,34 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="n">
         <f aca="false">B37+1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="I38" s="3" t="n">
+        <v>8</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -2556,26 +2706,30 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="n">
         <f aca="false">B38+1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="n">
+        <v>8</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="6" t="s">
@@ -2598,32 +2752,33 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="n">
         <f aca="false">B39+1</f>
+        <v>7</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="6" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -2642,31 +2797,35 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="n">
         <f aca="false">B40+1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F41" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3" t="n">
+        <v>10</v>
+      </c>
       <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="K41" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -2686,16 +2845,29 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="B42" s="3" t="n">
+        <f aca="false">B41+1</f>
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -2716,15 +2888,9 @@
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2748,38 +2914,24 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
-      <c r="B44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -2797,31 +2949,37 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
-      <c r="B45" s="3" t="n">
-        <v>1</v>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -2840,30 +2998,33 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="n">
-        <f aca="false">B45+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E46" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F46" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="I46" s="3" t="n">
+        <v>10</v>
+      </c>
       <c r="J46" s="3"/>
       <c r="K46" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -2882,32 +3043,32 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="n">
         <f aca="false">B46+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="I47" s="3" t="n">
+        <v>100</v>
+      </c>
       <c r="J47" s="3"/>
-      <c r="K47" s="6" t="s">
-        <v>46</v>
+      <c r="K47" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -2926,32 +3087,34 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="n">
         <f aca="false">B47+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="I48" s="3" t="n">
+        <v>8</v>
+      </c>
       <c r="J48" s="3"/>
       <c r="K48" s="6" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -2970,31 +3133,35 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="n">
         <f aca="false">B48+1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F49" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3" t="n">
+        <v>10</v>
+      </c>
       <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
+      <c r="K49" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -3014,16 +3181,29 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+      <c r="B50" s="3" t="n">
+        <f aca="false">B49+1</f>
+        <v>5</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -3044,15 +3224,9 @@
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -3076,38 +3250,24 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
-      <c r="B52" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -3125,31 +3285,37 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
-      <c r="B53" s="8" t="n">
-        <v>1</v>
+      <c r="B53" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E53" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="K53" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -3171,27 +3337,30 @@
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
       <c r="B54" s="8" t="n">
-        <f aca="false">B53+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="F54" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
+      <c r="I54" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="J54" s="8"/>
-      <c r="K54" s="5" t="s">
-        <v>23</v>
+      <c r="K54" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -3214,7 +3383,7 @@
       <c r="A55" s="2"/>
       <c r="B55" s="8" t="n">
         <f aca="false">B54+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>82</v>
@@ -3223,13 +3392,19 @@
         <v>83</v>
       </c>
       <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
+      <c r="F55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
+      <c r="I55" s="8" t="n">
+        <v>100</v>
+      </c>
       <c r="J55" s="8"/>
       <c r="K55" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -3248,32 +3423,30 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
       <c r="B56" s="8" t="n">
         <f aca="false">B55+1</f>
-        <v>4</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
       <c r="G56" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="6" t="s">
-        <v>46</v>
+        <v>23</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J56" s="8"/>
+      <c r="K56" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -3292,29 +3465,31 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
       <c r="B57" s="8" t="n">
         <f aca="false">B56+1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="F57" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="I57" s="3" t="n">
+        <v>8</v>
+      </c>
       <c r="J57" s="3"/>
       <c r="K57" s="6" t="s">
         <v>49</v>
@@ -3336,32 +3511,34 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
       <c r="B58" s="8" t="n">
         <f aca="false">B57+1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
+      <c r="I58" s="3" t="n">
+        <v>8</v>
+      </c>
       <c r="J58" s="3"/>
       <c r="K58" s="6" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -3380,31 +3557,35 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
       <c r="B59" s="8" t="n">
         <f aca="false">B58+1</f>
-        <v>7</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H59" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -3424,16 +3605,29 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
+      <c r="B60" s="8" t="n">
+        <f aca="false">B59+1</f>
+        <v>7</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -3453,20 +3647,16 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -3484,38 +3674,22 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
-      <c r="B62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -3535,29 +3709,35 @@
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
-      <c r="B63" s="3" t="n">
-        <v>1</v>
+      <c r="B63" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="K63" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -3576,30 +3756,33 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="n">
-        <f aca="false">B63+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F64" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
+      <c r="I64" s="3" t="n">
+        <v>8</v>
+      </c>
       <c r="J64" s="3"/>
-      <c r="K64" s="5" t="s">
-        <v>23</v>
+      <c r="K64" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -3618,32 +3801,32 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="n">
         <f aca="false">B64+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
+      <c r="I65" s="3" t="n">
+        <v>100</v>
+      </c>
       <c r="J65" s="3"/>
-      <c r="K65" s="6" t="s">
-        <v>20</v>
+      <c r="K65" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -3662,31 +3845,35 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="n">
         <f aca="false">B65+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F66" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H66" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3" t="n">
+        <v>10</v>
+      </c>
       <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
+      <c r="K66" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -3706,16 +3893,29 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
+      <c r="B67" s="3" t="n">
+        <f aca="false">B66+1</f>
+        <v>4</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -3739,7 +3939,7 @@
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
+      <c r="F68" s="13"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
@@ -3809,19 +4009,29 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -3850,16 +4060,16 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -3873,7 +4083,7 @@
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
+      <c r="F74" s="13"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
@@ -3885,16 +4095,6 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
-      <c r="X74" s="2"/>
-      <c r="Y74" s="2"/>
-      <c r="Z74" s="2"/>
-      <c r="AA74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
@@ -3909,6 +4109,21 @@
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
       <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
@@ -3960,26 +4175,11 @@
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
-      <c r="AA79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
@@ -3989,10 +4189,10 @@
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -4012,16 +4212,16 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -4070,16 +4270,16 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -4103,7 +4303,7 @@
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
+      <c r="F84" s="13"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
@@ -4192,10 +4392,10 @@
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -4221,10 +4421,10 @@
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -4244,16 +4444,16 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -4302,16 +4502,16 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -4335,7 +4535,7 @@
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
+      <c r="F92" s="13"/>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
@@ -4424,10 +4624,10 @@
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -4453,10 +4653,10 @@
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -4476,16 +4676,16 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -4534,16 +4734,16 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -4567,7 +4767,7 @@
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
+      <c r="F100" s="13"/>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
@@ -4685,10 +4885,10 @@
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
-      <c r="K104" s="14"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -4714,10 +4914,10 @@
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -4737,6 +4937,16 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -4756,16 +4966,6 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -4785,16 +4985,16 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -4818,7 +5018,7 @@
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
+      <c r="F109" s="13"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
@@ -4994,10 +5194,10 @@
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="14"/>
-      <c r="K115" s="14"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -5023,10 +5223,10 @@
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="14"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -5046,6 +5246,16 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -5065,16 +5275,6 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -5094,16 +5294,16 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -5127,7 +5327,7 @@
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
+      <c r="F120" s="13"/>
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
@@ -5216,10 +5416,10 @@
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="14"/>
-      <c r="K123" s="14"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -5245,10 +5445,10 @@
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="12"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="12"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="14"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -5268,16 +5468,16 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -5326,16 +5526,16 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="12"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="12"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -5359,7 +5559,7 @@
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
+      <c r="F128" s="13"/>
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
       <c r="I128" s="12"/>
@@ -5448,10 +5648,10 @@
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
-      <c r="J131" s="14"/>
-      <c r="K131" s="14"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -5477,10 +5677,10 @@
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="12"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="14"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -5500,16 +5700,16 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -5558,16 +5758,16 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="12"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="12"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -5591,7 +5791,7 @@
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
       <c r="E136" s="12"/>
-      <c r="F136" s="12"/>
+      <c r="F136" s="13"/>
       <c r="G136" s="12"/>
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
@@ -5709,10 +5909,10 @@
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
       <c r="G140" s="12"/>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
-      <c r="J140" s="14"/>
-      <c r="K140" s="14"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -5738,10 +5938,10 @@
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
       <c r="G141" s="12"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="12"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="14"/>
+      <c r="K141" s="14"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -5761,16 +5961,16 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -6977,7 +7177,7 @@
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
     </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -32381,7 +32581,35 @@
       <c r="Z1059" s="2"/>
       <c r="AA1059" s="2"/>
     </row>
-    <row r="1060" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1060" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1060" s="2"/>
+      <c r="B1060" s="2"/>
+      <c r="C1060" s="2"/>
+      <c r="D1060" s="2"/>
+      <c r="E1060" s="2"/>
+      <c r="F1060" s="2"/>
+      <c r="G1060" s="2"/>
+      <c r="H1060" s="2"/>
+      <c r="I1060" s="2"/>
+      <c r="J1060" s="2"/>
+      <c r="K1060" s="2"/>
+      <c r="L1060" s="2"/>
+      <c r="M1060" s="2"/>
+      <c r="N1060" s="2"/>
+      <c r="O1060" s="2"/>
+      <c r="P1060" s="2"/>
+      <c r="Q1060" s="2"/>
+      <c r="R1060" s="2"/>
+      <c r="S1060" s="2"/>
+      <c r="T1060" s="2"/>
+      <c r="U1060" s="2"/>
+      <c r="V1060" s="2"/>
+      <c r="W1060" s="2"/>
+      <c r="X1060" s="2"/>
+      <c r="Y1060" s="2"/>
+      <c r="Z1060" s="2"/>
+      <c r="AA1060" s="2"/>
+    </row>
     <row r="1061" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1062" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1063" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -32450,7 +32678,14 @@
     <row r="1126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G10 G14:G22 G26:G30 G34:G42 G46:G50 G54:G60 G64:G67" type="list">
+      <formula1>マスタ!$B$3:$B$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.35625" bottom="0.35625" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -32459,4 +32694,391 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:N17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="53.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="39.66"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="N2" s="0" t="str">
+        <f aca="false">"/* "&amp;C2&amp;" */"</f>
+        <v>/* ユーザテーブル */</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="0" t="str">
+        <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
+        <v>CREATE TABLE cor_user(</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="0" t="str">
+        <f aca="false">D4&amp;" "&amp;E4&amp;"("&amp;K4&amp;") "&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(J4 = "",""," DEFAULT "&amp;J4)&amp;" ,"</f>
+        <v>user_id VARCHAR(10)  NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="0" t="str">
+        <f aca="false">D5&amp;" "&amp;E5&amp;"("&amp;K5&amp;") "&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(J5 = "",""," DEFAULT "&amp;J5)&amp;" ,"</f>
+        <v>user_name VARCHAR(100)  ,</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="0" t="str">
+        <f aca="false">D6&amp;" "&amp;E6&amp;"("&amp;K6&amp;") "&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(J6 = "",""," DEFAULT "&amp;J6)&amp;" ,"</f>
+        <v>password VARCHAR(100)  NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="N7" s="0" t="str">
+        <f aca="false">D7&amp;" "&amp;E7&amp;"("&amp;K7&amp;") "&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(J7 = "",""," DEFAULT "&amp;J7)&amp;" ,"</f>
+        <v>version SMALLINT()  UNSIGNED NOT NULL DEFAULT 0 ,</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="0" t="str">
+        <f aca="false">"PRIMARY KEY("&amp;D11&amp;"),"</f>
+        <v>PRIMARY KEY(user_id),</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="N15" s="0" t="str">
+        <f aca="false">IF(C15 = "","","FOREIGN KEY("&amp;D15&amp;") REFERENCES "&amp;F15&amp;"("&amp;D15&amp;")")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E7" type="list">
+      <formula1>マスタ!$B$3:$B$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:H7" type="list">
+      <formula1>"〇"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/ゼミ用/02基本設計/テーブル定義書.xlsx
+++ b/ゼミ用/02基本設計/テーブル定義書.xlsx
@@ -5,12 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義書" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="cor_user" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="マスタ" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="acter" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="time_mst" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="rel" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="rel_mst" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="group_mst" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="opus" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="マスタ" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="110">
   <si>
     <t xml:space="preserve">DB名</t>
   </si>
@@ -960,7 +966,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1035,6 +1041,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1120,8 +1130,8 @@
   </sheetPr>
   <dimension ref="A1:AA1068"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K64" activeCellId="1" sqref="C15:D15 K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32704,10 +32714,10 @@
   <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
+      <selection pane="topLeft" activeCell="L4" activeCellId="1" sqref="C15:D15 L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33011,13 +33021,2483 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="B2:N25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="1" sqref="C15:D15 F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="53.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="39.66"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="N2" s="0" t="str">
+        <f aca="false">"/* "&amp;C2&amp;" */"</f>
+        <v>/* ユーザテーブル */</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="0" t="str">
+        <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
+        <v>CREATE TABLE cor_user(</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="0" t="str">
+        <f aca="false">D4&amp;" "&amp;E4&amp;"("&amp;K4&amp;") "&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(J4 = "",""," DEFAULT "&amp;J4)&amp;" ,"</f>
+        <v>acter_id VARCHAR(8)  NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="0" t="str">
+        <f aca="false">D5&amp;" "&amp;E5&amp;"("&amp;K5&amp;") "&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(J5 = "",""," DEFAULT "&amp;J5)&amp;" ,"</f>
+        <v>acter_name VARCHAR(100)  NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="0" t="str">
+        <f aca="false">D6&amp;" "&amp;E6&amp;"("&amp;K6&amp;") "&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(J6 = "",""," DEFAULT "&amp;J6)&amp;" ,"</f>
+        <v>acter_info VARCHAR(1200)  ,</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="0" t="str">
+        <f aca="false">D7&amp;" "&amp;E7&amp;"("&amp;K7&amp;") "&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(J7 = "",""," DEFAULT "&amp;J7)&amp;" ,"</f>
+        <v>acter_img VARCHAR(2000)  ,</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="0" t="str">
+        <f aca="false">"PRIMARY KEY("&amp;D16&amp;"),"</f>
+        <v>PRIMARY KEY(acter_id),</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="N20" s="0" t="str">
+        <f aca="false">IF(C20 = "","","FOREIGN KEY("&amp;D20&amp;") REFERENCES "&amp;F20&amp;"("&amp;D20&amp;")")</f>
+        <v>FOREIGN KEY(opus_id) REFERENCES (opus_id)</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:H12" type="list">
+      <formula1>"〇"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E12" type="list">
+      <formula1>マスタ!$B$3:$B$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:N19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="C15:D15 F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="53.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="39.66"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="N2" s="0" t="str">
+        <f aca="false">"/* "&amp;C2&amp;" */"</f>
+        <v>/* ユーザテーブル */</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="0" t="str">
+        <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
+        <v>CREATE TABLE cor_user(</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="0" t="str">
+        <f aca="false">D4&amp;" "&amp;E4&amp;"("&amp;K4&amp;") "&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(J4 = "",""," DEFAULT "&amp;J4)&amp;" ,"</f>
+        <v>time_id VARCHAR(8)  NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="0" t="str">
+        <f aca="false">D5&amp;" "&amp;E5&amp;"("&amp;K5&amp;") "&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(J5 = "",""," DEFAULT "&amp;J5)&amp;" ,"</f>
+        <v>time_name VARCHAR(100)  NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="0" t="str">
+        <f aca="false">D6&amp;" "&amp;E6&amp;"("&amp;K6&amp;") "&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(J6 = "",""," DEFAULT "&amp;J6)&amp;" ,"</f>
+        <v>opus_id VARCHAR(8)  NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="0" t="str">
+        <f aca="false">D7&amp;" "&amp;E7&amp;"("&amp;K7&amp;") "&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(J7 = "",""," DEFAULT "&amp;J7)&amp;" ,"</f>
+        <v>user_id VARCHAR(10)  NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="0" t="str">
+        <f aca="false">"PRIMARY KEY("&amp;D12&amp;"),"</f>
+        <v>PRIMARY KEY(time_id),</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="N16" s="0" t="str">
+        <f aca="false">IF(C16 = "","","FOREIGN KEY("&amp;D16&amp;") REFERENCES "&amp;F16&amp;"("&amp;D16&amp;")")</f>
+        <v>FOREIGN KEY(opus_id) REFERENCES (opus_id)</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:H8" type="list">
+      <formula1>"〇"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E8" type="list">
+      <formula1>マスタ!$B$3:$B$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:N27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J16" activeCellId="1" sqref="C15:D15 J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="53.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="39.66"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="N2" s="0" t="str">
+        <f aca="false">"/* "&amp;C2&amp;" */"</f>
+        <v>/* ユーザテーブル */</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="0" t="str">
+        <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
+        <v>CREATE TABLE cor_user(</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="0" t="str">
+        <f aca="false">D4&amp;" "&amp;E4&amp;"("&amp;K4&amp;") "&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(J4 = "",""," DEFAULT "&amp;J4)&amp;" ,"</f>
+        <v>rel_id VARCHAR(9)  NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="0" t="str">
+        <f aca="false">D5&amp;" "&amp;E5&amp;"("&amp;K5&amp;") "&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(J5 = "",""," DEFAULT "&amp;J5)&amp;" ,"</f>
+        <v>rel_mst_id VARCHAR(10)  NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="0" t="str">
+        <f aca="false">D6&amp;" "&amp;E6&amp;"("&amp;K6&amp;") "&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(J6 = "",""," DEFAULT "&amp;J6)&amp;" ,"</f>
+        <v>rel_mst_info VARCHAR(1200)  ,</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="0" t="str">
+        <f aca="false">D7&amp;" "&amp;E7&amp;"("&amp;K7&amp;") "&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(J7 = "",""," DEFAULT "&amp;J7)&amp;" ,"</f>
+        <v>acter_id VARCHAR(8)  NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="0" t="str">
+        <f aca="false">"PRIMARY KEY("&amp;D16&amp;"),"</f>
+        <v>PRIMARY KEY(rel_id),</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="N20" s="0" t="str">
+        <f aca="false">IF(C20 = "","","FOREIGN KEY("&amp;D20&amp;") REFERENCES "&amp;F20&amp;"("&amp;D20&amp;")")</f>
+        <v>FOREIGN KEY(rel_mst_id) REFERENCES (rel_mst_id)</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:H12" type="list">
+      <formula1>"〇"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E12" type="list">
+      <formula1>マスタ!$B$3:$B$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:N19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K21" activeCellId="1" sqref="C15:D15 K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="53.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="39.66"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="N2" s="0" t="str">
+        <f aca="false">"/* "&amp;C2&amp;" */"</f>
+        <v>/* ユーザテーブル */</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="0" t="str">
+        <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
+        <v>CREATE TABLE cor_user(</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="0" t="str">
+        <f aca="false">D4&amp;" "&amp;E4&amp;"("&amp;K4&amp;") "&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(J4 = "",""," DEFAULT "&amp;J4)&amp;" ,"</f>
+        <v>rel_mst_id VARCHAR(10)  NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="0" t="str">
+        <f aca="false">D5&amp;" "&amp;E5&amp;"("&amp;K5&amp;") "&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(J5 = "",""," DEFAULT "&amp;J5)&amp;" ,"</f>
+        <v>rel_mst_name VARCHAR(100)  ,</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="0" t="str">
+        <f aca="false">D6&amp;" "&amp;E6&amp;"("&amp;K6&amp;") "&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(J6 = "",""," DEFAULT "&amp;J6)&amp;" ,"</f>
+        <v>opus_id VARCHAR(8)  NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="0" t="str">
+        <f aca="false">D7&amp;" "&amp;E7&amp;"("&amp;K7&amp;") "&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(J7 = "",""," DEFAULT "&amp;J7)&amp;" ,"</f>
+        <v>user_id VARCHAR(10)  NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="0" t="str">
+        <f aca="false">"PRIMARY KEY("&amp;D12&amp;"),"</f>
+        <v>PRIMARY KEY(rel_mst_id),</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="N16" s="0" t="str">
+        <f aca="false">IF(C16 = "","","FOREIGN KEY("&amp;D16&amp;") REFERENCES "&amp;F16&amp;"("&amp;D16&amp;")")</f>
+        <v>FOREIGN KEY(opus_id) REFERENCES (opus_id)</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:H8" type="list">
+      <formula1>"〇"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E8" type="list">
+      <formula1>マスタ!$B$3:$B$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:N20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I15" activeCellId="1" sqref="C15:D15 I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="53.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="39.66"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="N2" s="0" t="str">
+        <f aca="false">"/* "&amp;C2&amp;" */"</f>
+        <v>/* ユーザテーブル */</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="0" t="str">
+        <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
+        <v>CREATE TABLE cor_user(</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="0" t="str">
+        <f aca="false">D4&amp;" "&amp;E4&amp;"("&amp;K4&amp;") "&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(J4 = "",""," DEFAULT "&amp;J4)&amp;" ,"</f>
+        <v>group_id VARCHAR(9)  NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="0" t="str">
+        <f aca="false">D5&amp;" "&amp;E5&amp;"("&amp;K5&amp;") "&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(J5 = "",""," DEFAULT "&amp;J5)&amp;" ,"</f>
+        <v>group_name VARCHAR(100)  NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="0" t="str">
+        <f aca="false">D6&amp;" "&amp;E6&amp;"("&amp;K6&amp;") "&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(J6 = "",""," DEFAULT "&amp;J6)&amp;" ,"</f>
+        <v>group_info VARCHAR(1200)  ,</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="0" t="str">
+        <f aca="false">D7&amp;" "&amp;E7&amp;"("&amp;K7&amp;") "&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(J7 = "",""," DEFAULT "&amp;J7)&amp;" ,"</f>
+        <v>opus_id VARCHAR(8)  NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="0" t="str">
+        <f aca="false">"PRIMARY KEY("&amp;D14&amp;"),"</f>
+        <v>PRIMARY KEY(group_id),</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="N18" s="0" t="str">
+        <f aca="false">IF(C18 = "","","FOREIGN KEY("&amp;D18&amp;") REFERENCES "&amp;F18&amp;"("&amp;D18&amp;")")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:H10" type="list">
+      <formula1>"〇"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E10" type="list">
+      <formula1>マスタ!$B$3:$B$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:N17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="53.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="39.66"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="N2" s="0" t="str">
+        <f aca="false">"/* "&amp;C2&amp;" */"</f>
+        <v>/* ユーザテーブル */</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="0" t="str">
+        <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
+        <v>CREATE TABLE cor_user(</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="0" t="str">
+        <f aca="false">D4&amp;" "&amp;E4&amp;"("&amp;K4&amp;") "&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(J4 = "",""," DEFAULT "&amp;J4)&amp;" ,"</f>
+        <v>opus_id VARCHAR(8)  NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="0" t="str">
+        <f aca="false">D5&amp;" "&amp;E5&amp;"("&amp;K5&amp;") "&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(J5 = "",""," DEFAULT "&amp;J5)&amp;" ,"</f>
+        <v>opus_name VARCHAR(100)  NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="0" t="str">
+        <f aca="false">D6&amp;" "&amp;E6&amp;"("&amp;K6&amp;") "&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(J6 = "",""," DEFAULT "&amp;J6)&amp;" ,"</f>
+        <v>user_id VARCHAR(10)  NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="N7" s="0" t="str">
+        <f aca="false">D7&amp;" "&amp;E7&amp;"("&amp;K7&amp;") "&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(J7 = "",""," DEFAULT "&amp;J7)&amp;" ,"</f>
+        <v>version SMALLINT()  UNSIGNED NOT NULL DEFAULT 0 ,</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="0" t="str">
+        <f aca="false">"PRIMARY KEY("&amp;D11&amp;"),"</f>
+        <v>PRIMARY KEY(opus_id),</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="N15" s="0" t="str">
+        <f aca="false">IF(C15 = "","","FOREIGN KEY("&amp;D15&amp;") REFERENCES "&amp;F15&amp;"("&amp;D15&amp;")")</f>
+        <v>FOREIGN KEY(user_id) REFERENCES (user_id)</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:H7" type="list">
+      <formula1>"〇"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E7" type="list">
+      <formula1>マスタ!$B$3:$B$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="C15:D15 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
@@ -33057,7 +35537,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>107</v>
       </c>
       <c r="C7" s="0" t="s">

--- a/ゼミ用/02基本設計/テーブル定義書.xlsx
+++ b/ゼミ用/02基本設計/テーブル定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義書" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="110">
   <si>
     <t xml:space="preserve">DB名</t>
   </si>
@@ -966,7 +966,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1041,6 +1041,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1130,8 +1134,8 @@
   </sheetPr>
   <dimension ref="A1:AA1068"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K64" activeCellId="1" sqref="C15:D15 K64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32713,11 +32717,11 @@
   </sheetPr>
   <dimension ref="B2:N17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L4" activeCellId="1" sqref="C15:D15 L4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33023,11 +33027,11 @@
   </sheetPr>
   <dimension ref="B2:N25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="1" sqref="C15:D15 F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33046,10 +33050,10 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -33063,7 +33067,7 @@
       <c r="L2" s="2"/>
       <c r="N2" s="0" t="str">
         <f aca="false">"/* "&amp;C2&amp;" */"</f>
-        <v>/* ユーザテーブル */</v>
+        <v>/* 登場人物マスタ */</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33102,7 +33106,7 @@
       </c>
       <c r="N3" s="0" t="str">
         <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
-        <v>CREATE TABLE cor_user(</v>
+        <v>CREATE TABLE acter(</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33260,6 +33264,10 @@
       <c r="L8" s="9" t="s">
         <v>49</v>
       </c>
+      <c r="N8" s="0" t="str">
+        <f aca="false">D8&amp;" "&amp;E8&amp;"("&amp;K8&amp;") "&amp;IF(G8 = "〇"," UNSIGNED","")&amp;IF(H8 = "〇"," ZEROFILL","")&amp;IF(F8 = "〇"," NOT NULL","")&amp;IF(J8 = "",""," DEFAULT "&amp;J8)&amp;" ,"</f>
+        <v>opus_id VARCHAR(8)  NOT NULL ,</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3" t="n">
@@ -33290,6 +33298,10 @@
       <c r="L9" s="9" t="s">
         <v>52</v>
       </c>
+      <c r="N9" s="0" t="str">
+        <f aca="false">D9&amp;" "&amp;E9&amp;"("&amp;K9&amp;") "&amp;IF(G9 = "〇"," UNSIGNED","")&amp;IF(H9 = "〇"," ZEROFILL","")&amp;IF(F9 = "〇"," NOT NULL","")&amp;IF(J9 = "",""," DEFAULT "&amp;J9)&amp;" ,"</f>
+        <v>time_id VARCHAR(8)  NOT NULL ,</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3" t="n">
@@ -33320,6 +33332,10 @@
       <c r="L10" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="N10" s="0" t="str">
+        <f aca="false">D10&amp;" "&amp;E10&amp;"("&amp;K10&amp;") "&amp;IF(G10 = "〇"," UNSIGNED","")&amp;IF(H10 = "〇"," ZEROFILL","")&amp;IF(F10 = "〇"," NOT NULL","")&amp;IF(J10 = "",""," DEFAULT "&amp;J10)&amp;" ,"</f>
+        <v>group_id VARCHAR(9)  NOT NULL ,</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="n">
@@ -33350,6 +33366,10 @@
       <c r="L11" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="N11" s="0" t="str">
+        <f aca="false">D11&amp;" "&amp;E11&amp;"("&amp;K11&amp;") "&amp;IF(G11 = "〇"," UNSIGNED","")&amp;IF(H11 = "〇"," ZEROFILL","")&amp;IF(F11 = "〇"," NOT NULL","")&amp;IF(J11 = "",""," DEFAULT "&amp;J11)&amp;" ,"</f>
+        <v>user_id VARCHAR(10)  NOT NULL ,</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3" t="n">
@@ -33378,6 +33398,10 @@
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
+      <c r="N12" s="0" t="str">
+        <f aca="false">D12&amp;" "&amp;E12&amp;"("&amp;K12&amp;") "&amp;IF(G12 = "〇"," UNSIGNED","")&amp;IF(H12 = "〇"," ZEROFILL","")&amp;IF(F12 = "〇"," NOT NULL","")&amp;IF(J12 = "",""," DEFAULT "&amp;J12)&amp;" ,"</f>
+        <v>version SMALLINT()  UNSIGNED NOT NULL DEFAULT 0 ,</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
@@ -33433,14 +33457,18 @@
       <c r="D20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="E20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
       <c r="N20" s="0" t="str">
         <f aca="false">IF(C20 = "","","FOREIGN KEY("&amp;D20&amp;") REFERENCES "&amp;F20&amp;"("&amp;D20&amp;")")</f>
-        <v>FOREIGN KEY(opus_id) REFERENCES (opus_id)</v>
+        <v>FOREIGN KEY(opus_id) REFERENCES opus(opus_id)</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33450,11 +33478,19 @@
       <c r="D21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="19"/>
+      <c r="E21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
+      <c r="N21" s="0" t="str">
+        <f aca="false">IF(C21 = "","","FOREIGN KEY("&amp;D21&amp;") REFERENCES "&amp;F21&amp;"("&amp;D21&amp;")")</f>
+        <v>FOREIGN KEY(time_id) REFERENCES time_mst(time_id)</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="8" t="s">
@@ -33463,11 +33499,19 @@
       <c r="D22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="19"/>
+      <c r="E22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
+      <c r="N22" s="0" t="str">
+        <f aca="false">IF(C22 = "","","FOREIGN KEY("&amp;D22&amp;") REFERENCES "&amp;F22&amp;"("&amp;D22&amp;")")</f>
+        <v>FOREIGN KEY(group_id) REFERENCES group_mst(group_id)</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="8" t="s">
@@ -33476,11 +33520,25 @@
       <c r="D23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="19"/>
+      <c r="E23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
+      <c r="N23" s="0" t="str">
+        <f aca="false">IF(C23 = "","","FOREIGN KEY("&amp;D23&amp;") REFERENCES "&amp;F23&amp;"("&amp;D23&amp;")")</f>
+        <v>FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N24" s="0" t="str">
+        <f aca="false">IF(C24 = "","","FOREIGN KEY("&amp;D24&amp;") REFERENCES "&amp;F24&amp;"("&amp;D24&amp;")")</f>
+        <v/>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="18" t="s">
@@ -33525,11 +33583,11 @@
   </sheetPr>
   <dimension ref="B2:N19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="C15:D15 F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N16" activeCellId="0" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33548,10 +33606,10 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -33565,7 +33623,7 @@
       <c r="L2" s="2"/>
       <c r="N2" s="0" t="str">
         <f aca="false">"/* "&amp;C2&amp;" */"</f>
-        <v>/* ユーザテーブル */</v>
+        <v>/* 時系列マスタ */</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33604,7 +33662,7 @@
       </c>
       <c r="N3" s="0" t="str">
         <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
-        <v>CREATE TABLE cor_user(</v>
+        <v>CREATE TABLE time_mst(</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33768,6 +33826,10 @@
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
+      <c r="N8" s="0" t="str">
+        <f aca="false">D8&amp;" "&amp;E8&amp;"("&amp;K8&amp;") "&amp;IF(G8 = "〇"," UNSIGNED","")&amp;IF(H8 = "〇"," ZEROFILL","")&amp;IF(F8 = "〇"," NOT NULL","")&amp;IF(J8 = "",""," DEFAULT "&amp;J8)&amp;" ,"</f>
+        <v>version SMALLINT()  UNSIGNED NOT NULL DEFAULT 0 ,</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
@@ -33823,14 +33885,18 @@
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="E16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
       <c r="N16" s="0" t="str">
         <f aca="false">IF(C16 = "","","FOREIGN KEY("&amp;D16&amp;") REFERENCES "&amp;F16&amp;"("&amp;D16&amp;")")</f>
-        <v>FOREIGN KEY(opus_id) REFERENCES (opus_id)</v>
+        <v>FOREIGN KEY(opus_id) REFERENCES opus(opus_id)</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33840,11 +33906,25 @@
       <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
+      <c r="N17" s="0" t="str">
+        <f aca="false">IF(C17 = "","","FOREIGN KEY("&amp;D17&amp;") REFERENCES "&amp;F17&amp;"("&amp;D17&amp;")")</f>
+        <v>FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N18" s="0" t="str">
+        <f aca="false">IF(C18 = "","","FOREIGN KEY("&amp;D18&amp;") REFERENCES "&amp;F18&amp;"("&amp;D18&amp;")")</f>
+        <v/>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="18" t="s">
@@ -33887,11 +33967,11 @@
   </sheetPr>
   <dimension ref="B2:N27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="1" sqref="C15:D15 J16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33910,10 +33990,10 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -33927,7 +34007,7 @@
       <c r="L2" s="2"/>
       <c r="N2" s="0" t="str">
         <f aca="false">"/* "&amp;C2&amp;" */"</f>
-        <v>/* ユーザテーブル */</v>
+        <v>/* 関係 */</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33966,7 +34046,7 @@
       </c>
       <c r="N3" s="0" t="str">
         <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
-        <v>CREATE TABLE cor_user(</v>
+        <v>CREATE TABLE rel(</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34130,6 +34210,10 @@
       <c r="L8" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="N8" s="0" t="str">
+        <f aca="false">D8&amp;" "&amp;E8&amp;"("&amp;K8&amp;") "&amp;IF(G8 = "〇"," UNSIGNED","")&amp;IF(H8 = "〇"," ZEROFILL","")&amp;IF(F8 = "〇"," NOT NULL","")&amp;IF(J8 = "",""," DEFAULT "&amp;J8)&amp;" ,"</f>
+        <v>target_id VARCHAR(8)  NOT NULL ,</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3" t="n">
@@ -34160,6 +34244,10 @@
       <c r="L9" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="N9" s="0" t="str">
+        <f aca="false">D9&amp;" "&amp;E9&amp;"("&amp;K9&amp;") "&amp;IF(G9 = "〇"," UNSIGNED","")&amp;IF(H9 = "〇"," ZEROFILL","")&amp;IF(F9 = "〇"," NOT NULL","")&amp;IF(J9 = "",""," DEFAULT "&amp;J9)&amp;" ,"</f>
+        <v>opus_id VARCHAR(8)  NOT NULL ,</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3" t="n">
@@ -34190,6 +34278,10 @@
       <c r="L10" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="N10" s="0" t="str">
+        <f aca="false">D10&amp;" "&amp;E10&amp;"("&amp;K10&amp;") "&amp;IF(G10 = "〇"," UNSIGNED","")&amp;IF(H10 = "〇"," ZEROFILL","")&amp;IF(F10 = "〇"," NOT NULL","")&amp;IF(J10 = "",""," DEFAULT "&amp;J10)&amp;" ,"</f>
+        <v>time_id VARCHAR(8)  NOT NULL ,</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="n">
@@ -34220,6 +34312,10 @@
       <c r="L11" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="N11" s="0" t="str">
+        <f aca="false">D11&amp;" "&amp;E11&amp;"("&amp;K11&amp;") "&amp;IF(G11 = "〇"," UNSIGNED","")&amp;IF(H11 = "〇"," ZEROFILL","")&amp;IF(F11 = "〇"," NOT NULL","")&amp;IF(J11 = "",""," DEFAULT "&amp;J11)&amp;" ,"</f>
+        <v>user_id VARCHAR(10)  NOT NULL ,</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3" t="n">
@@ -34248,6 +34344,10 @@
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
+      <c r="N12" s="0" t="str">
+        <f aca="false">D12&amp;" "&amp;E12&amp;"("&amp;K12&amp;") "&amp;IF(G12 = "〇"," UNSIGNED","")&amp;IF(H12 = "〇"," ZEROFILL","")&amp;IF(F12 = "〇"," NOT NULL","")&amp;IF(J12 = "",""," DEFAULT "&amp;J12)&amp;" ,"</f>
+        <v>version SMALLINT()  UNSIGNED NOT NULL DEFAULT 0 ,</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
@@ -34303,14 +34403,18 @@
       <c r="D20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="E20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
       <c r="N20" s="0" t="str">
         <f aca="false">IF(C20 = "","","FOREIGN KEY("&amp;D20&amp;") REFERENCES "&amp;F20&amp;"("&amp;D20&amp;")")</f>
-        <v>FOREIGN KEY(rel_mst_id) REFERENCES (rel_mst_id)</v>
+        <v>FOREIGN KEY(rel_mst_id) REFERENCES rel_mst(rel_mst_id)</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34320,11 +34424,19 @@
       <c r="D21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="19"/>
+      <c r="E21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
+      <c r="N21" s="0" t="str">
+        <f aca="false">IF(C21 = "","","FOREIGN KEY("&amp;D21&amp;") REFERENCES "&amp;F21&amp;"("&amp;D21&amp;")")</f>
+        <v>FOREIGN KEY(acter_id) REFERENCES acter(acter_id)</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="3" t="s">
@@ -34334,10 +34446,14 @@
         <v>73</v>
       </c>
       <c r="E22" s="16"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="N22" s="0" t="str">
+        <f aca="false">IF(C22 = "","","FOREIGN KEY("&amp;D22&amp;") REFERENCES "&amp;F22&amp;"("&amp;D22&amp;")")</f>
+        <v>FOREIGN KEY(target_id) REFERENCES (target_id)</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="3" t="s">
@@ -34346,11 +34462,19 @@
       <c r="D23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="19"/>
+      <c r="E23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
+      <c r="N23" s="0" t="str">
+        <f aca="false">IF(C23 = "","","FOREIGN KEY("&amp;D23&amp;") REFERENCES "&amp;F23&amp;"("&amp;D23&amp;")")</f>
+        <v>FOREIGN KEY(opus_id) REFERENCES opus(opus_id)</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="3" t="s">
@@ -34359,11 +34483,19 @@
       <c r="D24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="19"/>
+      <c r="E24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
+      <c r="N24" s="0" t="str">
+        <f aca="false">IF(C24 = "","","FOREIGN KEY("&amp;D24&amp;") REFERENCES "&amp;F24&amp;"("&amp;D24&amp;")")</f>
+        <v>FOREIGN KEY(time_id) REFERENCES time_mst(time_id)</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="3" t="s">
@@ -34372,11 +34504,25 @@
       <c r="D25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="19"/>
+      <c r="E25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
+      <c r="N25" s="0" t="str">
+        <f aca="false">IF(C25 = "","","FOREIGN KEY("&amp;D25&amp;") REFERENCES "&amp;F25&amp;"("&amp;D25&amp;")")</f>
+        <v>FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N26" s="0" t="str">
+        <f aca="false">IF(C26 = "","","FOREIGN KEY("&amp;D26&amp;") REFERENCES "&amp;F26&amp;"("&amp;D26&amp;")")</f>
+        <v/>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="18" t="s">
@@ -34423,11 +34569,11 @@
   </sheetPr>
   <dimension ref="B2:N19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K21" activeCellId="1" sqref="C15:D15 K21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34446,10 +34592,10 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -34463,7 +34609,7 @@
       <c r="L2" s="2"/>
       <c r="N2" s="0" t="str">
         <f aca="false">"/* "&amp;C2&amp;" */"</f>
-        <v>/* ユーザテーブル */</v>
+        <v>/* 関係性マスタ */</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34502,7 +34648,7 @@
       </c>
       <c r="N3" s="0" t="str">
         <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
-        <v>CREATE TABLE cor_user(</v>
+        <v>CREATE TABLE rel_mst(</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34662,6 +34808,10 @@
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
+      <c r="N8" s="0" t="str">
+        <f aca="false">D8&amp;" "&amp;E8&amp;"("&amp;K8&amp;") "&amp;IF(G8 = "〇"," UNSIGNED","")&amp;IF(H8 = "〇"," ZEROFILL","")&amp;IF(F8 = "〇"," NOT NULL","")&amp;IF(J8 = "",""," DEFAULT "&amp;J8)&amp;" ,"</f>
+        <v>version SMALLINT()  UNSIGNED DEFAULT 0 ,</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
@@ -34717,14 +34867,18 @@
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="E16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
       <c r="N16" s="0" t="str">
         <f aca="false">IF(C16 = "","","FOREIGN KEY("&amp;D16&amp;") REFERENCES "&amp;F16&amp;"("&amp;D16&amp;")")</f>
-        <v>FOREIGN KEY(opus_id) REFERENCES (opus_id)</v>
+        <v>FOREIGN KEY(opus_id) REFERENCES opus(opus_id)</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34734,11 +34888,19 @@
       <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
+      <c r="N17" s="0" t="str">
+        <f aca="false">IF(C17 = "","","FOREIGN KEY("&amp;D17&amp;") REFERENCES "&amp;F17&amp;"("&amp;D17&amp;")")</f>
+        <v>FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="18" t="s">
@@ -34781,11 +34943,11 @@
   </sheetPr>
   <dimension ref="B2:N20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="1" sqref="C15:D15 I15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34804,10 +34966,10 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -34821,7 +34983,7 @@
       <c r="L2" s="2"/>
       <c r="N2" s="0" t="str">
         <f aca="false">"/* "&amp;C2&amp;" */"</f>
-        <v>/* ユーザテーブル */</v>
+        <v>/* グループマスタ */</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34860,7 +35022,7 @@
       </c>
       <c r="N3" s="0" t="str">
         <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
-        <v>CREATE TABLE cor_user(</v>
+        <v>CREATE TABLE group_mst(</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35018,6 +35180,10 @@
       <c r="L8" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="N8" s="0" t="str">
+        <f aca="false">D8&amp;" "&amp;E8&amp;"("&amp;K8&amp;") "&amp;IF(G8 = "〇"," UNSIGNED","")&amp;IF(H8 = "〇"," ZEROFILL","")&amp;IF(F8 = "〇"," NOT NULL","")&amp;IF(J8 = "",""," DEFAULT "&amp;J8)&amp;" ,"</f>
+        <v>time_id VARCHAR(8)  NOT NULL ,</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3" t="n">
@@ -35046,6 +35212,10 @@
       <c r="L9" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="N9" s="0" t="str">
+        <f aca="false">D9&amp;" "&amp;E9&amp;"("&amp;K9&amp;") "&amp;IF(G9 = "〇"," UNSIGNED","")&amp;IF(H9 = "〇"," ZEROFILL","")&amp;IF(F9 = "〇"," NOT NULL","")&amp;IF(J9 = "",""," DEFAULT "&amp;J9)&amp;" ,"</f>
+        <v>user_id VARCHAR(10)  NOT NULL ,</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3" t="n">
@@ -35074,6 +35244,10 @@
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
+      <c r="N10" s="0" t="str">
+        <f aca="false">D10&amp;" "&amp;E10&amp;"("&amp;K10&amp;") "&amp;IF(G10 = "〇"," UNSIGNED","")&amp;IF(H10 = "〇"," ZEROFILL","")&amp;IF(F10 = "〇"," NOT NULL","")&amp;IF(J10 = "",""," DEFAULT "&amp;J10)&amp;" ,"</f>
+        <v>version SMALLINT()  UNSIGNED NOT NULL DEFAULT 0 ,</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
@@ -35175,11 +35349,11 @@
   </sheetPr>
   <dimension ref="B2:N17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15:D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -35198,10 +35372,10 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -35215,7 +35389,7 @@
       <c r="L2" s="2"/>
       <c r="N2" s="0" t="str">
         <f aca="false">"/* "&amp;C2&amp;" */"</f>
-        <v>/* ユーザテーブル */</v>
+        <v>/* 作品マスタ */</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35254,7 +35428,7 @@
       </c>
       <c r="N3" s="0" t="str">
         <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
-        <v>CREATE TABLE cor_user(</v>
+        <v>CREATE TABLE opus(</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35443,14 +35617,18 @@
       <c r="D15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="E15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
       <c r="N15" s="0" t="str">
         <f aca="false">IF(C15 = "","","FOREIGN KEY("&amp;D15&amp;") REFERENCES "&amp;F15&amp;"("&amp;D15&amp;")")</f>
-        <v>FOREIGN KEY(user_id) REFERENCES (user_id)</v>
+        <v>FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35493,11 +35671,11 @@
   </sheetPr>
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="C15:D15 B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
@@ -35537,7 +35715,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>107</v>
       </c>
       <c r="C7" s="0" t="s">

--- a/ゼミ用/02基本設計/テーブル定義書.xlsx
+++ b/ゼミ用/02基本設計/テーブル定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義書" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="110">
   <si>
     <t xml:space="preserve">DB名</t>
   </si>
@@ -966,7 +966,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1045,10 +1045,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1134,8 +1130,8 @@
   </sheetPr>
   <dimension ref="A1:AA1068"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32721,7 +32717,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33028,10 +33024,10 @@
   <dimension ref="B2:N25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33557,12 +33553,12 @@
     <mergeCell ref="F23:I23"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E12" type="list">
+      <formula1>マスタ!$B$3:$B$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:H12" type="list">
       <formula1>"〇"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E12" type="list">
-      <formula1>マスタ!$B$3:$B$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -33584,10 +33580,10 @@
   <dimension ref="B2:N19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N16" activeCellId="0" sqref="N16"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33941,12 +33937,12 @@
     <mergeCell ref="F17:I17"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E8" type="list">
+      <formula1>マスタ!$B$3:$B$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:H8" type="list">
       <formula1>"〇"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E8" type="list">
-      <formula1>マスタ!$B$3:$B$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -33968,10 +33964,10 @@
   <dimension ref="B2:N27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34445,14 +34441,18 @@
       <c r="D22" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="E22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
       <c r="N22" s="0" t="str">
         <f aca="false">IF(C22 = "","","FOREIGN KEY("&amp;D22&amp;") REFERENCES "&amp;F22&amp;"("&amp;D22&amp;")")</f>
-        <v>FOREIGN KEY(target_id) REFERENCES (target_id)</v>
+        <v>FOREIGN KEY(target_id) REFERENCES acter(target_id)</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34543,12 +34543,12 @@
     <mergeCell ref="F25:I25"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E12" type="list">
+      <formula1>マスタ!$B$3:$B$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:H12" type="list">
       <formula1>"〇"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E12" type="list">
-      <formula1>マスタ!$B$3:$B$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -34570,10 +34570,10 @@
   <dimension ref="B2:N19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34917,12 +34917,12 @@
     <mergeCell ref="F17:I17"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E8" type="list">
+      <formula1>マスタ!$B$3:$B$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:H8" type="list">
       <formula1>"〇"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E8" type="list">
-      <formula1>マスタ!$B$3:$B$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -34941,13 +34941,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:N20"/>
+  <dimension ref="B2:N22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N22" activeCellId="0" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -35025,7 +35025,7 @@
         <v>CREATE TABLE group_mst(</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3" t="n">
         <f aca="false">ROW()-3</f>
         <v>1</v>
@@ -35044,7 +35044,7 @@
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="8"/>
@@ -35059,7 +35059,7 @@
         <v>group_id VARCHAR(9)  NOT NULL ,</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3" t="n">
         <f aca="false">ROW()-3</f>
         <v>2</v>
@@ -35078,7 +35078,7 @@
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="n">
         <v>100</v>
@@ -35091,7 +35091,7 @@
         <v>group_name VARCHAR(100)  NOT NULL ,</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3" t="n">
         <f aca="false">ROW()-3</f>
         <v>3</v>
@@ -35108,7 +35108,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="n">
         <v>1200</v>
@@ -35121,7 +35121,7 @@
         <v>group_info VARCHAR(1200)  ,</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="n">
         <f aca="false">ROW()-3</f>
         <v>4</v>
@@ -35140,7 +35140,9 @@
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="n">
         <v>8</v>
@@ -35153,7 +35155,7 @@
         <v>opus_id VARCHAR(8)  NOT NULL ,</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="3" t="n">
         <f aca="false">ROW()-3</f>
         <v>5</v>
@@ -35172,7 +35174,9 @@
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="n">
         <v>8</v>
@@ -35185,7 +35189,7 @@
         <v>time_id VARCHAR(8)  NOT NULL ,</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3" t="n">
         <f aca="false">ROW()-3</f>
         <v>6</v>
@@ -35204,7 +35208,9 @@
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="n">
         <v>10</v>
@@ -35238,7 +35244,7 @@
         <v>22</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="8" t="n">
         <v>0</v>
       </c>
@@ -35297,38 +35303,90 @@
       <c r="I17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
       <c r="N18" s="0" t="str">
         <f aca="false">IF(C18 = "","","FOREIGN KEY("&amp;D18&amp;") REFERENCES "&amp;F18&amp;"("&amp;D18&amp;")")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="18" t="s">
+        <v>FOREIGN KEY(opus_id) REFERENCES opus(opus_id)</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="N19" s="0" t="str">
+        <f aca="false">IF(C19 = "","","FOREIGN KEY("&amp;D19&amp;") REFERENCES "&amp;F19&amp;"("&amp;D19&amp;")")</f>
+        <v>FOREIGN KEY(time_id) REFERENCES time_mst(time_id)</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="N20" s="0" t="str">
+        <f aca="false">IF(C20 = "","","FOREIGN KEY("&amp;D20&amp;") REFERENCES "&amp;F20&amp;"("&amp;D20&amp;")")</f>
+        <v>FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="N20" s="0" t="s">
+      <c r="N22" s="0" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E10" type="list">
+      <formula1>マスタ!$B$3:$B$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:H10" type="list">
       <formula1>"〇"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E10" type="list">
-      <formula1>マスタ!$B$3:$B$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -35353,7 +35411,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -35645,12 +35703,12 @@
     <mergeCell ref="F15:I15"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E7" type="list">
+      <formula1>マスタ!$B$3:$B$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:H7" type="list">
       <formula1>"〇"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E7" type="list">
-      <formula1>マスタ!$B$3:$B$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -35675,7 +35733,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
@@ -35715,7 +35773,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>107</v>
       </c>
       <c r="C7" s="0" t="s">

--- a/ゼミ用/02基本設計/テーブル定義書.xlsx
+++ b/ゼミ用/02基本設計/テーブル定義書.xlsx
@@ -10,12 +10,12 @@
   <sheets>
     <sheet name="テーブル定義書" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="cor_user" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="acter" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="time_mst" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="rel" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="rel_mst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="group_mst" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="opus" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="opus" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="rel_mst" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="time_mst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="group_mst" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="acter" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="rel" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="マスタ" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="111">
   <si>
     <t xml:space="preserve">DB名</t>
   </si>
@@ -786,6 +786,9 @@
     <t xml:space="preserve">0埋め</t>
   </si>
   <si>
+    <t xml:space="preserve">UNIQUE</t>
+  </si>
+  <si>
     <t xml:space="preserve">半角英数字</t>
   </si>
   <si>
@@ -848,7 +851,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -909,6 +912,13 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -966,7 +976,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1039,11 +1049,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1130,8 +1152,8 @@
   </sheetPr>
   <dimension ref="A1:AA1068"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32711,13 +32733,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:N17"/>
+  <dimension ref="B1:O17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -32727,12 +32749,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="53.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="39.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="53.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="39.66"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1" s="0" t="str">
+        <f aca="false">"/* "&amp;C2&amp;" */"</f>
+        <v>/* ユーザテーブル */</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -32751,12 +32779,13 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="N2" s="0" t="str">
-        <f aca="false">"/* "&amp;C2&amp;" */"</f>
-        <v>/* ユーザテーブル */</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="2"/>
+      <c r="O2" s="0" t="str">
+        <f aca="false">"DROP TABLE IF EXISTS "&amp;D2&amp;";"</f>
+        <v>DROP TABLE IF EXISTS cor_user;</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -32778,19 +32807,22 @@
       <c r="H3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="0" t="str">
+      <c r="O3" s="0" t="str">
         <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
         <v>CREATE TABLE cor_user(</v>
       </c>
@@ -32814,19 +32846,22 @@
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="0" t="str">
-        <f aca="false">D4&amp;" "&amp;E4&amp;"("&amp;K4&amp;") "&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(J4 = "",""," DEFAULT "&amp;J4)&amp;" ,"</f>
-        <v>user_id VARCHAR(10)  NOT NULL ,</v>
+      <c r="O4" s="0" t="str">
+        <f aca="false">D4&amp;" "&amp;E4&amp;IF(L4 = "","","("&amp;L4&amp;")")&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(K4 = "",""," DEFAULT "&amp;K4)&amp;IF(I4 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>user_id VARCHAR(10) NOT NULL UNIQUE  ,</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32846,17 +32881,18 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="0" t="str">
-        <f aca="false">D5&amp;" "&amp;E5&amp;"("&amp;K5&amp;") "&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(J5 = "",""," DEFAULT "&amp;J5)&amp;" ,"</f>
-        <v>user_name VARCHAR(100)  ,</v>
+      <c r="O5" s="0" t="str">
+        <f aca="false">D5&amp;" "&amp;E5&amp;IF(L5 = "","","("&amp;L5&amp;")")&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(K5 = "",""," DEFAULT "&amp;K5)&amp;IF(I5 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>user_name VARCHAR(100) ,</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32878,17 +32914,18 @@
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="N6" s="0" t="str">
-        <f aca="false">D6&amp;" "&amp;E6&amp;"("&amp;K6&amp;") "&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(J6 = "",""," DEFAULT "&amp;J6)&amp;" ,"</f>
-        <v>password VARCHAR(100)  NOT NULL ,</v>
+      <c r="M6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="0" t="str">
+        <f aca="false">D6&amp;" "&amp;E6&amp;IF(L6 = "","","("&amp;L6&amp;")")&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(K6 = "",""," DEFAULT "&amp;K6)&amp;IF(I6 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>password VARCHAR(100) NOT NULL ,</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32912,20 +32949,21 @@
         <v>22</v>
       </c>
       <c r="H7" s="15"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="n">
+      <c r="I7" s="15"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="N7" s="0" t="str">
-        <f aca="false">D7&amp;" "&amp;E7&amp;"("&amp;K7&amp;") "&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(J7 = "",""," DEFAULT "&amp;J7)&amp;" ,"</f>
-        <v>version SMALLINT()  UNSIGNED NOT NULL DEFAULT 0 ,</v>
+      <c r="M7" s="3"/>
+      <c r="O7" s="0" t="str">
+        <f aca="false">D7&amp;" "&amp;E7&amp;IF(L7 = "","","("&amp;L7&amp;")")&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(K7 = "",""," DEFAULT "&amp;K7)&amp;IF(I7 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>version SMALLINT UNSIGNED NOT NULL DEFAULT 0 ,</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32943,14 +32981,14 @@
       <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="0" t="str">
-        <f aca="false">"PRIMARY KEY("&amp;D11&amp;"),"</f>
-        <v>PRIMARY KEY(user_id),</v>
+      <c r="O11" s="0" t="str">
+        <f aca="false">"PRIMARY KEY("&amp;D11&amp;")"</f>
+        <v>PRIMARY KEY(user_id)</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32961,14 +32999,22 @@
         <v>11</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="8"/>
@@ -32978,30 +33024,40 @@
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
-      <c r="N15" s="0" t="str">
-        <f aca="false">IF(C15 = "","","FOREIGN KEY("&amp;D15&amp;") REFERENCES "&amp;F15&amp;"("&amp;D15&amp;")")</f>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="8"/>
+      <c r="O15" s="0" t="str">
+        <f aca="false">IF(C15 = "","",",FOREIGN KEY("&amp;D15&amp;") REFERENCES "&amp;F15&amp;"("&amp;M15&amp;")")</f>
         <v/>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="N17" s="0" t="s">
+      <c r="B17" s="19" t="s">
         <v>98</v>
       </c>
+      <c r="O17" s="0" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
+  <mergeCells count="4">
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:L15"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E7" type="list">
       <formula1>マスタ!$B$3:$B$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:H7" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:H4 F5:I7" type="list">
+      <formula1>"〇"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I4" type="list">
       <formula1>"〇"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -33021,13 +33077,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:N25"/>
+  <dimension ref="B1:O17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33037,19 +33093,25 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="53.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="39.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="53.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="39.66"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1" s="0" t="str">
+        <f aca="false">"/* "&amp;C2&amp;" */"</f>
+        <v>/* 作品マスタ */</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -33061,12 +33123,13 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="N2" s="0" t="str">
-        <f aca="false">"/* "&amp;C2&amp;" */"</f>
-        <v>/* 登場人物マスタ */</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="2"/>
+      <c r="O2" s="0" t="str">
+        <f aca="false">"DROP TABLE IF EXISTS "&amp;D2&amp;";"</f>
+        <v>DROP TABLE IF EXISTS opus;</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -33088,21 +33151,24 @@
       <c r="H3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="0" t="str">
+      <c r="O3" s="0" t="str">
         <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
-        <v>CREATE TABLE acter(</v>
+        <v>CREATE TABLE opus(</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33110,65 +33176,69 @@
         <f aca="false">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>36</v>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8" t="n">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="0" t="str">
-        <f aca="false">D4&amp;" "&amp;E4&amp;"("&amp;K4&amp;") "&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(J4 = "",""," DEFAULT "&amp;J4)&amp;" ,"</f>
-        <v>acter_id VARCHAR(8)  NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="0" t="str">
+        <f aca="false">D4&amp;" "&amp;E4&amp;IF(L4 = "","","("&amp;L4&amp;")")&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(K4 = "",""," DEFAULT "&amp;K4)&amp;IF(I4 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>opus_id VARCHAR(8) NOT NULL UNIQUE  ,</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3" t="n">
         <f aca="false">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>39</v>
+      <c r="C5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8" t="n">
+      <c r="I5" s="15"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="0" t="str">
-        <f aca="false">D5&amp;" "&amp;E5&amp;"("&amp;K5&amp;") "&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(J5 = "",""," DEFAULT "&amp;J5)&amp;" ,"</f>
-        <v>acter_name VARCHAR(100)  NOT NULL ,</v>
+      <c r="M5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="0" t="str">
+        <f aca="false">D5&amp;" "&amp;E5&amp;IF(L5 = "","","("&amp;L5&amp;")")&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(K5 = "",""," DEFAULT "&amp;K5)&amp;IF(I5 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>opus_name VARCHAR(100) NOT NULL ,</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33176,29 +33246,34 @@
         <f aca="false">ROW()-3</f>
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>42</v>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8" t="n">
-        <v>1200</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="0" t="str">
-        <f aca="false">D6&amp;" "&amp;E6&amp;"("&amp;K6&amp;") "&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(J6 = "",""," DEFAULT "&amp;J6)&amp;" ,"</f>
-        <v>acter_info VARCHAR(1200)  ,</v>
+      <c r="I6" s="15"/>
+      <c r="J6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="0" t="str">
+        <f aca="false">D6&amp;" "&amp;E6&amp;IF(L6 = "","","("&amp;L6&amp;")")&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(K6 = "",""," DEFAULT "&amp;K6)&amp;IF(I6 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>user_id VARCHAR(10) NOT NULL ,</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33206,358 +33281,139 @@
         <f aca="false">ROW()-3</f>
         <v>4</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>44</v>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="H7" s="15"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="0" t="str">
-        <f aca="false">D7&amp;" "&amp;E7&amp;"("&amp;K7&amp;") "&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(J7 = "",""," DEFAULT "&amp;J7)&amp;" ,"</f>
-        <v>acter_img VARCHAR(2000)  ,</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="n">
-        <f aca="false">ROW()-3</f>
-        <v>5</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="O7" s="0" t="str">
+        <f aca="false">D7&amp;" "&amp;E7&amp;IF(L7 = "","","("&amp;L7&amp;")")&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(K7 = "",""," DEFAULT "&amp;K7)&amp;IF(I7 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>version SMALLINT UNSIGNED NOT NULL DEFAULT 0 ,</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="0" t="str">
-        <f aca="false">D8&amp;" "&amp;E8&amp;"("&amp;K8&amp;") "&amp;IF(G8 = "〇"," UNSIGNED","")&amp;IF(H8 = "〇"," ZEROFILL","")&amp;IF(F8 = "〇"," NOT NULL","")&amp;IF(J8 = "",""," DEFAULT "&amp;J8)&amp;" ,"</f>
-        <v>opus_id VARCHAR(8)  NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3" t="n">
-        <f aca="false">ROW()-3</f>
-        <v>6</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="0" t="str">
-        <f aca="false">D9&amp;" "&amp;E9&amp;"("&amp;K9&amp;") "&amp;IF(G9 = "〇"," UNSIGNED","")&amp;IF(H9 = "〇"," ZEROFILL","")&amp;IF(F9 = "〇"," NOT NULL","")&amp;IF(J9 = "",""," DEFAULT "&amp;J9)&amp;" ,"</f>
-        <v>time_id VARCHAR(8)  NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3" t="n">
-        <f aca="false">ROW()-3</f>
-        <v>7</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" s="0" t="str">
-        <f aca="false">D10&amp;" "&amp;E10&amp;"("&amp;K10&amp;") "&amp;IF(G10 = "〇"," UNSIGNED","")&amp;IF(H10 = "〇"," ZEROFILL","")&amp;IF(F10 = "〇"," NOT NULL","")&amp;IF(J10 = "",""," DEFAULT "&amp;J10)&amp;" ,"</f>
-        <v>group_id VARCHAR(9)  NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3" t="n">
-        <f aca="false">ROW()-3</f>
-        <v>8</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8" t="n">
+      <c r="O11" s="0" t="str">
+        <f aca="false">"PRIMARY KEY("&amp;D11&amp;")"</f>
+        <v>PRIMARY KEY(opus_id)</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="0" t="str">
-        <f aca="false">D11&amp;" "&amp;E11&amp;"("&amp;K11&amp;") "&amp;IF(G11 = "〇"," UNSIGNED","")&amp;IF(H11 = "〇"," ZEROFILL","")&amp;IF(F11 = "〇"," NOT NULL","")&amp;IF(J11 = "",""," DEFAULT "&amp;J11)&amp;" ,"</f>
-        <v>user_id VARCHAR(10)  NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="n">
-        <f aca="false">ROW()-3</f>
-        <v>9</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="N12" s="0" t="str">
-        <f aca="false">D12&amp;" "&amp;E12&amp;"("&amp;K12&amp;") "&amp;IF(G12 = "〇"," UNSIGNED","")&amp;IF(H12 = "〇"," ZEROFILL","")&amp;IF(F12 = "〇"," NOT NULL","")&amp;IF(J12 = "",""," DEFAULT "&amp;J12)&amp;" ,"</f>
-        <v>version SMALLINT()  UNSIGNED NOT NULL DEFAULT 0 ,</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
-        <v>93</v>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16" s="0" t="str">
-        <f aca="false">"PRIMARY KEY("&amp;D16&amp;"),"</f>
-        <v>PRIMARY KEY(acter_id),</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="N20" s="0" t="str">
-        <f aca="false">IF(C20 = "","","FOREIGN KEY("&amp;D20&amp;") REFERENCES "&amp;F20&amp;"("&amp;D20&amp;")")</f>
-        <v>FOREIGN KEY(opus_id) REFERENCES opus(opus_id)</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="N21" s="0" t="str">
-        <f aca="false">IF(C21 = "","","FOREIGN KEY("&amp;D21&amp;") REFERENCES "&amp;F21&amp;"("&amp;D21&amp;")")</f>
-        <v>FOREIGN KEY(time_id) REFERENCES time_mst(time_id)</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="N22" s="0" t="str">
-        <f aca="false">IF(C22 = "","","FOREIGN KEY("&amp;D22&amp;") REFERENCES "&amp;F22&amp;"("&amp;D22&amp;")")</f>
-        <v>FOREIGN KEY(group_id) REFERENCES group_mst(group_id)</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="L15" s="20"/>
+      <c r="M15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="N23" s="0" t="str">
-        <f aca="false">IF(C23 = "","","FOREIGN KEY("&amp;D23&amp;") REFERENCES "&amp;F23&amp;"("&amp;D23&amp;")")</f>
-        <v>FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N24" s="0" t="str">
-        <f aca="false">IF(C24 = "","","FOREIGN KEY("&amp;D24&amp;") REFERENCES "&amp;F24&amp;"("&amp;D24&amp;")")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="N25" s="0" t="s">
+      <c r="O15" s="0" t="str">
+        <f aca="false">IF(C15 = "","",",FOREIGN KEY("&amp;D15&amp;") REFERENCES "&amp;F15&amp;"("&amp;M15&amp;")")</f>
+        <v>,FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="19" t="s">
         <v>98</v>
       </c>
+      <c r="O17" s="0" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
+  <mergeCells count="4">
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E12" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E7" type="list">
       <formula1>マスタ!$B$3:$B$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:H12" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:I7" type="list">
       <formula1>"〇"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -33577,13 +33433,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:N19"/>
+  <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33593,19 +33449,25 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="53.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="39.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="53.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="39.66"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1" s="0" t="str">
+        <f aca="false">"/* "&amp;C2&amp;" */"</f>
+        <v>/* 関係性マスタ */</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -33617,12 +33479,13 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="N2" s="0" t="str">
-        <f aca="false">"/* "&amp;C2&amp;" */"</f>
-        <v>/* 時系列マスタ */</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="2"/>
+      <c r="O2" s="0" t="str">
+        <f aca="false">"DROP TABLE IF EXISTS "&amp;D2&amp;";"</f>
+        <v>DROP TABLE IF EXISTS rel_mst;</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -33644,21 +33507,24 @@
       <c r="H3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="0" t="str">
+      <c r="O3" s="0" t="str">
         <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
-        <v>CREATE TABLE time_mst(</v>
+        <v>CREATE TABLE rel_mst(</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33667,32 +33533,35 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="0" t="str">
-        <f aca="false">D4&amp;" "&amp;E4&amp;"("&amp;K4&amp;") "&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(J4 = "",""," DEFAULT "&amp;J4)&amp;" ,"</f>
-        <v>time_id VARCHAR(8)  NOT NULL ,</v>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="0" t="str">
+        <f aca="false">D4&amp;" "&amp;E4&amp;IF(L4 = "","","("&amp;L4&amp;")")&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(K4 = "",""," DEFAULT "&amp;K4)&amp;IF(I4 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>rel_mst_id VARCHAR(10) NOT NULL UNIQUE  ,</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33701,30 +33570,29 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="0" t="str">
-        <f aca="false">D5&amp;" "&amp;E5&amp;"("&amp;K5&amp;") "&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(J5 = "",""," DEFAULT "&amp;J5)&amp;" ,"</f>
-        <v>time_name VARCHAR(100)  NOT NULL ,</v>
+      <c r="O5" s="0" t="str">
+        <f aca="false">D5&amp;" "&amp;E5&amp;IF(L5 = "","","("&amp;L5&amp;")")&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(K5 = "",""," DEFAULT "&amp;K5)&amp;IF(I5 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>rel_mst_name VARCHAR(100) ,</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33741,24 +33609,25 @@
       <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="0" t="str">
-        <f aca="false">D6&amp;" "&amp;E6&amp;"("&amp;K6&amp;") "&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(J6 = "",""," DEFAULT "&amp;J6)&amp;" ,"</f>
-        <v>opus_id VARCHAR(8)  NOT NULL ,</v>
+      <c r="O6" s="0" t="str">
+        <f aca="false">D6&amp;" "&amp;E6&amp;IF(L6 = "","","("&amp;L6&amp;")")&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(K6 = "",""," DEFAULT "&amp;K6)&amp;IF(I6 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>opus_id VARCHAR(8) NOT NULL ,</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33775,24 +33644,25 @@
       <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="0" t="str">
-        <f aca="false">D7&amp;" "&amp;E7&amp;"("&amp;K7&amp;") "&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(J7 = "",""," DEFAULT "&amp;J7)&amp;" ,"</f>
-        <v>user_id VARCHAR(10)  NOT NULL ,</v>
+      <c r="O7" s="0" t="str">
+        <f aca="false">D7&amp;" "&amp;E7&amp;IF(L7 = "","","("&amp;L7&amp;")")&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(K7 = "",""," DEFAULT "&amp;K7)&amp;IF(I7 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>user_id VARCHAR(10) NOT NULL ,</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33809,27 +33679,26 @@
       <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="F8" s="15"/>
       <c r="G8" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="15"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="n">
+      <c r="I8" s="15"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="N8" s="0" t="str">
-        <f aca="false">D8&amp;" "&amp;E8&amp;"("&amp;K8&amp;") "&amp;IF(G8 = "〇"," UNSIGNED","")&amp;IF(H8 = "〇"," ZEROFILL","")&amp;IF(F8 = "〇"," NOT NULL","")&amp;IF(J8 = "",""," DEFAULT "&amp;J8)&amp;" ,"</f>
-        <v>version SMALLINT()  UNSIGNED NOT NULL DEFAULT 0 ,</v>
+      <c r="M8" s="3"/>
+      <c r="O8" s="0" t="str">
+        <f aca="false">D8&amp;" "&amp;E8&amp;IF(L8 = "","","("&amp;L8&amp;")")&amp;IF(G8 = "〇"," UNSIGNED","")&amp;IF(H8 = "〇"," ZEROFILL","")&amp;IF(F8 = "〇"," NOT NULL","")&amp;IF(K8 = "",""," DEFAULT "&amp;K8)&amp;IF(I8 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>version SMALLINT UNSIGNED DEFAULT 0 ,</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33842,19 +33711,19 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" s="0" t="str">
-        <f aca="false">"PRIMARY KEY("&amp;D12&amp;"),"</f>
-        <v>PRIMARY KEY(time_id),</v>
+        <v>68</v>
+      </c>
+      <c r="O12" s="0" t="str">
+        <f aca="false">"PRIMARY KEY("&amp;D12&amp;")"</f>
+        <v>PRIMARY KEY(rel_mst_id)</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33865,14 +33734,22 @@
         <v>11</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="3" t="s">
@@ -33884,15 +33761,23 @@
       <c r="E16" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="N16" s="0" t="str">
-        <f aca="false">IF(C16 = "","","FOREIGN KEY("&amp;D16&amp;") REFERENCES "&amp;F16&amp;"("&amp;D16&amp;")")</f>
-        <v>FOREIGN KEY(opus_id) REFERENCES opus(opus_id)</v>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="0" t="str">
+        <f aca="false">IF(C16 = "","",",FOREIGN KEY("&amp;D16&amp;") REFERENCES "&amp;F16&amp;"("&amp;M16&amp;")")</f>
+        <v>,FOREIGN KEY(opus_id) REFERENCES opus(opus_id)</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33905,43 +33790,52 @@
       <c r="E17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="N17" s="0" t="str">
-        <f aca="false">IF(C17 = "","","FOREIGN KEY("&amp;D17&amp;") REFERENCES "&amp;F17&amp;"("&amp;D17&amp;")")</f>
-        <v>FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N18" s="0" t="str">
-        <f aca="false">IF(C18 = "","","FOREIGN KEY("&amp;D18&amp;") REFERENCES "&amp;F18&amp;"("&amp;D18&amp;")")</f>
-        <v/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="0" t="str">
+        <f aca="false">IF(C17 = "","",",FOREIGN KEY("&amp;D17&amp;") REFERENCES "&amp;F17&amp;"("&amp;M17&amp;")")</f>
+        <v>,FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="N19" s="0" t="s">
+      <c r="B19" s="19" t="s">
         <v>98</v>
       </c>
+      <c r="O19" s="0" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
+  <mergeCells count="6">
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:L17"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E8" type="list">
       <formula1>マスタ!$B$3:$B$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:H8" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:H4 F5:I8" type="list">
+      <formula1>"〇"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I4" type="list">
       <formula1>"〇"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -33961,13 +33855,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:N27"/>
+  <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33977,19 +33871,25 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="53.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="39.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="53.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="39.66"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1" s="0" t="str">
+        <f aca="false">"/* "&amp;C2&amp;" */"</f>
+        <v>/* 時系列マスタ */</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -34001,12 +33901,13 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="N2" s="0" t="str">
-        <f aca="false">"/* "&amp;C2&amp;" */"</f>
-        <v>/* 関係 */</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="2"/>
+      <c r="O2" s="0" t="str">
+        <f aca="false">"DROP TABLE IF EXISTS "&amp;D2&amp;";"</f>
+        <v>DROP TABLE IF EXISTS time_mst;</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -34028,21 +33929,24 @@
       <c r="H3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="0" t="str">
+      <c r="O3" s="0" t="str">
         <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
-        <v>CREATE TABLE rel(</v>
+        <v>CREATE TABLE time_mst(</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34051,10 +33955,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>23</v>
@@ -34064,19 +33968,22 @@
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="0" t="str">
-        <f aca="false">D4&amp;" "&amp;E4&amp;"("&amp;K4&amp;") "&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(J4 = "",""," DEFAULT "&amp;J4)&amp;" ,"</f>
-        <v>rel_id VARCHAR(9)  NOT NULL ,</v>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="0" t="str">
+        <f aca="false">D4&amp;" "&amp;E4&amp;IF(L4 = "","","("&amp;L4&amp;")")&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(K4 = "",""," DEFAULT "&amp;K4)&amp;IF(I4 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>time_id VARCHAR(8) NOT NULL UNIQUE  ,</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34085,10 +33992,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
@@ -34098,19 +34005,18 @@
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="I5" s="15"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="N5" s="0" t="str">
-        <f aca="false">D5&amp;" "&amp;E5&amp;"("&amp;K5&amp;") "&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(J5 = "",""," DEFAULT "&amp;J5)&amp;" ,"</f>
-        <v>rel_mst_id VARCHAR(10)  NOT NULL ,</v>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="0" t="str">
+        <f aca="false">D5&amp;" "&amp;E5&amp;IF(L5 = "","","("&amp;L5&amp;")")&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(K5 = "",""," DEFAULT "&amp;K5)&amp;IF(I5 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>time_name VARCHAR(100) NOT NULL ,</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34119,28 +34025,33 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="n">
-        <v>1200</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="0" t="str">
-        <f aca="false">D6&amp;" "&amp;E6&amp;"("&amp;K6&amp;") "&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(J6 = "",""," DEFAULT "&amp;J6)&amp;" ,"</f>
-        <v>rel_mst_info VARCHAR(1200)  ,</v>
+      <c r="I6" s="15"/>
+      <c r="J6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="0" t="str">
+        <f aca="false">D6&amp;" "&amp;E6&amp;IF(L6 = "","","("&amp;L6&amp;")")&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(K6 = "",""," DEFAULT "&amp;K6)&amp;IF(I6 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>opus_id VARCHAR(8) NOT NULL ,</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34148,11 +34059,11 @@
         <f aca="false">ROW()-3</f>
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>35</v>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>23</v>
@@ -34162,392 +34073,197 @@
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="0" t="str">
-        <f aca="false">D7&amp;" "&amp;E7&amp;"("&amp;K7&amp;") "&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(J7 = "",""," DEFAULT "&amp;J7)&amp;" ,"</f>
-        <v>acter_id VARCHAR(8)  NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="0" t="str">
+        <f aca="false">D7&amp;" "&amp;E7&amp;IF(L7 = "","","("&amp;L7&amp;")")&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(K7 = "",""," DEFAULT "&amp;K7)&amp;IF(I7 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>user_id VARCHAR(10) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="3" t="n">
         <f aca="false">ROW()-3</f>
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="H8" s="15"/>
-      <c r="I8" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="I8" s="15"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="0" t="str">
-        <f aca="false">D8&amp;" "&amp;E8&amp;"("&amp;K8&amp;") "&amp;IF(G8 = "〇"," UNSIGNED","")&amp;IF(H8 = "〇"," ZEROFILL","")&amp;IF(F8 = "〇"," NOT NULL","")&amp;IF(J8 = "",""," DEFAULT "&amp;J8)&amp;" ,"</f>
-        <v>target_id VARCHAR(8)  NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3" t="n">
-        <f aca="false">ROW()-3</f>
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="0" t="str">
-        <f aca="false">D9&amp;" "&amp;E9&amp;"("&amp;K9&amp;") "&amp;IF(G9 = "〇"," UNSIGNED","")&amp;IF(H9 = "〇"," ZEROFILL","")&amp;IF(F9 = "〇"," NOT NULL","")&amp;IF(J9 = "",""," DEFAULT "&amp;J9)&amp;" ,"</f>
-        <v>opus_id VARCHAR(8)  NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3" t="n">
-        <f aca="false">ROW()-3</f>
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="O8" s="0" t="str">
+        <f aca="false">D8&amp;" "&amp;E8&amp;IF(L8 = "","","("&amp;L8&amp;")")&amp;IF(G8 = "〇"," UNSIGNED","")&amp;IF(H8 = "〇"," ZEROFILL","")&amp;IF(F8 = "〇"," NOT NULL","")&amp;IF(K8 = "",""," DEFAULT "&amp;K8)&amp;IF(I8 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>version SMALLINT UNSIGNED NOT NULL DEFAULT 0 ,</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="0" t="str">
-        <f aca="false">D10&amp;" "&amp;E10&amp;"("&amp;K10&amp;") "&amp;IF(G10 = "〇"," UNSIGNED","")&amp;IF(H10 = "〇"," ZEROFILL","")&amp;IF(F10 = "〇"," NOT NULL","")&amp;IF(J10 = "",""," DEFAULT "&amp;J10)&amp;" ,"</f>
-        <v>time_id VARCHAR(8)  NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3" t="n">
-        <f aca="false">ROW()-3</f>
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="0" t="str">
-        <f aca="false">D11&amp;" "&amp;E11&amp;"("&amp;K11&amp;") "&amp;IF(G11 = "〇"," UNSIGNED","")&amp;IF(H11 = "〇"," ZEROFILL","")&amp;IF(F11 = "〇"," NOT NULL","")&amp;IF(J11 = "",""," DEFAULT "&amp;J11)&amp;" ,"</f>
-        <v>user_id VARCHAR(10)  NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="n">
-        <f aca="false">ROW()-3</f>
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="N12" s="0" t="str">
-        <f aca="false">D12&amp;" "&amp;E12&amp;"("&amp;K12&amp;") "&amp;IF(G12 = "〇"," UNSIGNED","")&amp;IF(H12 = "〇"," ZEROFILL","")&amp;IF(F12 = "〇"," NOT NULL","")&amp;IF(J12 = "",""," DEFAULT "&amp;J12)&amp;" ,"</f>
-        <v>version SMALLINT()  UNSIGNED NOT NULL DEFAULT 0 ,</v>
+      <c r="O12" s="0" t="str">
+        <f aca="false">"PRIMARY KEY("&amp;D12&amp;")"</f>
+        <v>PRIMARY KEY(time_id)</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N16" s="0" t="str">
-        <f aca="false">"PRIMARY KEY("&amp;D16&amp;"),"</f>
-        <v>PRIMARY KEY(rel_id),</v>
+        <v>47</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="0" t="str">
+        <f aca="false">IF(C16 = "","",",FOREIGN KEY("&amp;D16&amp;") REFERENCES "&amp;F16&amp;"("&amp;M16&amp;")")</f>
+        <v>,FOREIGN KEY(opus_id) REFERENCES opus(opus_id)</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="0" t="str">
+        <f aca="false">IF(C17 = "","",",FOREIGN KEY("&amp;D17&amp;") REFERENCES "&amp;F17&amp;"("&amp;M17&amp;")")</f>
+        <v>,FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="N20" s="0" t="str">
-        <f aca="false">IF(C20 = "","","FOREIGN KEY("&amp;D20&amp;") REFERENCES "&amp;F20&amp;"("&amp;D20&amp;")")</f>
-        <v>FOREIGN KEY(rel_mst_id) REFERENCES rel_mst(rel_mst_id)</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="N21" s="0" t="str">
-        <f aca="false">IF(C21 = "","","FOREIGN KEY("&amp;D21&amp;") REFERENCES "&amp;F21&amp;"("&amp;D21&amp;")")</f>
-        <v>FOREIGN KEY(acter_id) REFERENCES acter(acter_id)</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="N22" s="0" t="str">
-        <f aca="false">IF(C22 = "","","FOREIGN KEY("&amp;D22&amp;") REFERENCES "&amp;F22&amp;"("&amp;D22&amp;")")</f>
-        <v>FOREIGN KEY(target_id) REFERENCES acter(target_id)</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="N23" s="0" t="str">
-        <f aca="false">IF(C23 = "","","FOREIGN KEY("&amp;D23&amp;") REFERENCES "&amp;F23&amp;"("&amp;D23&amp;")")</f>
-        <v>FOREIGN KEY(opus_id) REFERENCES opus(opus_id)</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="N24" s="0" t="str">
-        <f aca="false">IF(C24 = "","","FOREIGN KEY("&amp;D24&amp;") REFERENCES "&amp;F24&amp;"("&amp;D24&amp;")")</f>
-        <v>FOREIGN KEY(time_id) REFERENCES time_mst(time_id)</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="N25" s="0" t="str">
-        <f aca="false">IF(C25 = "","","FOREIGN KEY("&amp;D25&amp;") REFERENCES "&amp;F25&amp;"("&amp;D25&amp;")")</f>
-        <v>FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N26" s="0" t="str">
-        <f aca="false">IF(C26 = "","","FOREIGN KEY("&amp;D26&amp;") REFERENCES "&amp;F26&amp;"("&amp;D26&amp;")")</f>
+      <c r="O18" s="0" t="str">
+        <f aca="false">IF(C18 = "","","FOREIGN KEY("&amp;D18&amp;") REFERENCES "&amp;F18&amp;"("&amp;D18&amp;")")</f>
         <v/>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="N27" s="0" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="19" t="s">
         <v>98</v>
       </c>
+      <c r="O19" s="0" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
+  <mergeCells count="6">
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:L17"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E12" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E8" type="list">
       <formula1>マスタ!$B$3:$B$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:H12" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:I8" type="list">
       <formula1>"〇"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -34567,13 +34283,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:N19"/>
+  <dimension ref="B1:O22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34583,19 +34299,25 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="53.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="39.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="53.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="39.66"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1" s="0" t="str">
+        <f aca="false">"/* "&amp;C2&amp;" */"</f>
+        <v>/* グループマスタ */</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -34607,12 +34329,13 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="N2" s="0" t="str">
-        <f aca="false">"/* "&amp;C2&amp;" */"</f>
-        <v>/* 関係性マスタ */</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="2"/>
+      <c r="O2" s="0" t="str">
+        <f aca="false">"DROP TABLE IF EXISTS "&amp;D2&amp;";"</f>
+        <v>DROP TABLE IF EXISTS group_mst;</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -34634,21 +34357,24 @@
       <c r="H3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="0" t="str">
+      <c r="O3" s="0" t="str">
         <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
-        <v>CREATE TABLE rel_mst(</v>
+        <v>CREATE TABLE group_mst(</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34656,33 +34382,36 @@
         <f aca="false">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>68</v>
+      <c r="C4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" s="0" t="str">
-        <f aca="false">D4&amp;" "&amp;E4&amp;"("&amp;K4&amp;") "&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(J4 = "",""," DEFAULT "&amp;J4)&amp;" ,"</f>
-        <v>rel_mst_id VARCHAR(10)  NOT NULL ,</v>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="0" t="str">
+        <f aca="false">D4&amp;" "&amp;E4&amp;IF(L4 = "","","("&amp;L4&amp;")")&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(K4 = "",""," DEFAULT "&amp;K4)&amp;IF(I4 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>group_id VARCHAR(9) NOT NULL UNIQUE  ,</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34690,29 +34419,32 @@
         <f aca="false">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>78</v>
+      <c r="C5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="n">
+      <c r="I5" s="15"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="0" t="str">
-        <f aca="false">D5&amp;" "&amp;E5&amp;"("&amp;K5&amp;") "&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(J5 = "",""," DEFAULT "&amp;J5)&amp;" ,"</f>
-        <v>rel_mst_name VARCHAR(100)  ,</v>
+      <c r="O5" s="0" t="str">
+        <f aca="false">D5&amp;" "&amp;E5&amp;IF(L5 = "","","("&amp;L5&amp;")")&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(K5 = "",""," DEFAULT "&amp;K5)&amp;IF(I5 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>group_name VARCHAR(100) NOT NULL ,</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34720,33 +34452,30 @@
         <f aca="false">ROW()-3</f>
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>47</v>
+      <c r="C6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="0" t="str">
-        <f aca="false">D6&amp;" "&amp;E6&amp;"("&amp;K6&amp;") "&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(J6 = "",""," DEFAULT "&amp;J6)&amp;" ,"</f>
-        <v>opus_id VARCHAR(8)  NOT NULL ,</v>
+      <c r="I6" s="15"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="0" t="str">
+        <f aca="false">D6&amp;" "&amp;E6&amp;IF(L6 = "","","("&amp;L6&amp;")")&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(K6 = "",""," DEFAULT "&amp;K6)&amp;IF(I6 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>group_info VARCHAR(1200) ,</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34755,173 +34484,305 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="0" t="str">
-        <f aca="false">D7&amp;" "&amp;E7&amp;"("&amp;K7&amp;") "&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(J7 = "",""," DEFAULT "&amp;J7)&amp;" ,"</f>
-        <v>user_id VARCHAR(10)  NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="0" t="str">
+        <f aca="false">D7&amp;" "&amp;E7&amp;IF(L7 = "","","("&amp;L7&amp;")")&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(K7 = "",""," DEFAULT "&amp;K7)&amp;IF(I7 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>opus_id VARCHAR(8) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="3" t="n">
         <f aca="false">ROW()-3</f>
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="0" t="str">
+        <f aca="false">D8&amp;" "&amp;E8&amp;IF(L8 = "","","("&amp;L8&amp;")")&amp;IF(G8 = "〇"," UNSIGNED","")&amp;IF(H8 = "〇"," ZEROFILL","")&amp;IF(F8 = "〇"," NOT NULL","")&amp;IF(K8 = "",""," DEFAULT "&amp;K8)&amp;IF(I8 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>time_id VARCHAR(8) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="0" t="str">
+        <f aca="false">D9&amp;" "&amp;E9&amp;IF(L9 = "","","("&amp;L9&amp;")")&amp;IF(G9 = "〇"," UNSIGNED","")&amp;IF(H9 = "〇"," ZEROFILL","")&amp;IF(F9 = "〇"," NOT NULL","")&amp;IF(K9 = "",""," DEFAULT "&amp;K9)&amp;IF(I9 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>user_id VARCHAR(10) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
+      <c r="F10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="n">
+      <c r="G10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="N8" s="0" t="str">
-        <f aca="false">D8&amp;" "&amp;E8&amp;"("&amp;K8&amp;") "&amp;IF(G8 = "〇"," UNSIGNED","")&amp;IF(H8 = "〇"," ZEROFILL","")&amp;IF(F8 = "〇"," NOT NULL","")&amp;IF(J8 = "",""," DEFAULT "&amp;J8)&amp;" ,"</f>
-        <v>version SMALLINT()  UNSIGNED DEFAULT 0 ,</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="3" t="s">
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="O10" s="0" t="str">
+        <f aca="false">D10&amp;" "&amp;E10&amp;IF(L10 = "","","("&amp;L10&amp;")")&amp;IF(G10 = "〇"," UNSIGNED","")&amp;IF(H10 = "〇"," ZEROFILL","")&amp;IF(F10 = "〇"," NOT NULL","")&amp;IF(K10 = "",""," DEFAULT "&amp;K10)&amp;IF(I10 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>version SMALLINT UNSIGNED NOT NULL DEFAULT 0 ,</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N12" s="0" t="str">
-        <f aca="false">"PRIMARY KEY("&amp;D12&amp;"),"</f>
-        <v>PRIMARY KEY(rel_mst_id),</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="8" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="0" t="str">
+        <f aca="false">"PRIMARY KEY("&amp;D14&amp;")"</f>
+        <v>PRIMARY KEY(group_id)</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="3" t="s">
+      <c r="F17" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="N16" s="0" t="str">
-        <f aca="false">IF(C16 = "","","FOREIGN KEY("&amp;D16&amp;") REFERENCES "&amp;F16&amp;"("&amp;D16&amp;")")</f>
-        <v>FOREIGN KEY(opus_id) REFERENCES opus(opus_id)</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="3" t="s">
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="0" t="str">
+        <f aca="false">IF(C18 = "","",",FOREIGN KEY("&amp;D18&amp;") REFERENCES "&amp;F18&amp;"("&amp;M18&amp;")")</f>
+        <v>,FOREIGN KEY(opus_id) REFERENCES opus(opus_id)</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O19" s="0" t="str">
+        <f aca="false">IF(C19 = "","",",FOREIGN KEY("&amp;D19&amp;") REFERENCES "&amp;F19&amp;"("&amp;M19&amp;")")</f>
+        <v>,FOREIGN KEY(time_id) REFERENCES time_mst(time_id)</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="N17" s="0" t="str">
-        <f aca="false">IF(C17 = "","","FOREIGN KEY("&amp;D17&amp;") REFERENCES "&amp;F17&amp;"("&amp;D17&amp;")")</f>
-        <v>FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="N19" s="0" t="s">
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="18"/>
+      <c r="M20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="0" t="str">
+        <f aca="false">IF(C20 = "","",",FOREIGN KEY("&amp;D20&amp;") REFERENCES "&amp;F20&amp;"("&amp;M20&amp;")")</f>
+        <v>,FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="19" t="s">
         <v>98</v>
       </c>
+      <c r="O22" s="0" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
+  <mergeCells count="8">
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="K20:L20"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E8" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E10" type="list">
       <formula1>マスタ!$B$3:$B$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:H8" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:I10" type="list">
       <formula1>"〇"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -34941,13 +34802,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:N22"/>
+  <dimension ref="B1:O25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N22" activeCellId="0" sqref="N22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34957,19 +34818,25 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="53.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="39.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="53.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="39.66"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1" s="0" t="str">
+        <f aca="false">"/* "&amp;C2&amp;" */"</f>
+        <v>/* 登場人物マスタ */</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -34981,12 +34848,13 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="N2" s="0" t="str">
-        <f aca="false">"/* "&amp;C2&amp;" */"</f>
-        <v>/* グループマスタ */</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="2"/>
+      <c r="O2" s="0" t="str">
+        <f aca="false">"DROP TABLE IF EXISTS "&amp;D2&amp;";"</f>
+        <v>DROP TABLE IF EXISTS acter;</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -35008,33 +34876,36 @@
       <c r="H3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="0" t="str">
+      <c r="O3" s="0" t="str">
         <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
-        <v>CREATE TABLE group_mst(</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>CREATE TABLE acter(</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3" t="n">
         <f aca="false">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>53</v>
+      <c r="C4" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>23</v>
@@ -35044,31 +34915,34 @@
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="0" t="str">
-        <f aca="false">D4&amp;" "&amp;E4&amp;"("&amp;K4&amp;") "&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(J4 = "",""," DEFAULT "&amp;J4)&amp;" ,"</f>
-        <v>group_id VARCHAR(9)  NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="0" t="str">
+        <f aca="false">D4&amp;" "&amp;E4&amp;IF(L4 = "","","("&amp;L4&amp;")")&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(K4 = "",""," DEFAULT "&amp;K4)&amp;IF(I4 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>acter_id VARCHAR(8) NOT NULL UNIQUE  ,</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3" t="n">
         <f aca="false">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
@@ -35078,29 +34952,30 @@
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="8"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="0" t="str">
-        <f aca="false">D5&amp;" "&amp;E5&amp;"("&amp;K5&amp;") "&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(J5 = "",""," DEFAULT "&amp;J5)&amp;" ,"</f>
-        <v>group_name VARCHAR(100)  NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="0" t="str">
+        <f aca="false">D5&amp;" "&amp;E5&amp;IF(L5 = "","","("&amp;L5&amp;")")&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(K5 = "",""," DEFAULT "&amp;K5)&amp;IF(I5 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>acter_name VARCHAR(100) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3" t="n">
         <f aca="false">ROW()-3</f>
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>23</v>
@@ -35108,284 +34983,428 @@
       <c r="F6" s="8"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="8" t="n">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="n">
         <v>1200</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="0" t="str">
-        <f aca="false">D6&amp;" "&amp;E6&amp;"("&amp;K6&amp;") "&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(J6 = "",""," DEFAULT "&amp;J6)&amp;" ,"</f>
-        <v>group_info VARCHAR(1200)  ,</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O6" s="0" t="str">
+        <f aca="false">D6&amp;" "&amp;E6&amp;IF(L6 = "","","("&amp;L6&amp;")")&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(K6 = "",""," DEFAULT "&amp;K6)&amp;IF(I6 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>acter_info VARCHAR(1200) ,</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="n">
         <f aca="false">ROW()-3</f>
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>47</v>
+      <c r="C7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="0" t="str">
-        <f aca="false">D7&amp;" "&amp;E7&amp;"("&amp;K7&amp;") "&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(J7 = "",""," DEFAULT "&amp;J7)&amp;" ,"</f>
-        <v>opus_id VARCHAR(8)  NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="15"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="0" t="str">
+        <f aca="false">D7&amp;" "&amp;E7&amp;IF(L7 = "","","("&amp;L7&amp;")")&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(K7 = "",""," DEFAULT "&amp;K7)&amp;IF(I7 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>acter_img VARCHAR(2000) ,</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="3" t="n">
         <f aca="false">ROW()-3</f>
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>51</v>
+      <c r="C8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="8"/>
+      <c r="L8" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="0" t="str">
-        <f aca="false">D8&amp;" "&amp;E8&amp;"("&amp;K8&amp;") "&amp;IF(G8 = "〇"," UNSIGNED","")&amp;IF(H8 = "〇"," ZEROFILL","")&amp;IF(F8 = "〇"," NOT NULL","")&amp;IF(J8 = "",""," DEFAULT "&amp;J8)&amp;" ,"</f>
-        <v>time_id VARCHAR(8)  NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="0" t="str">
+        <f aca="false">D8&amp;" "&amp;E8&amp;IF(L8 = "","","("&amp;L8&amp;")")&amp;IF(G8 = "〇"," UNSIGNED","")&amp;IF(H8 = "〇"," ZEROFILL","")&amp;IF(F8 = "〇"," NOT NULL","")&amp;IF(K8 = "",""," DEFAULT "&amp;K8)&amp;IF(I8 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>opus_id VARCHAR(8) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3" t="n">
         <f aca="false">ROW()-3</f>
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
+      <c r="C9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="0" t="str">
-        <f aca="false">D9&amp;" "&amp;E9&amp;"("&amp;K9&amp;") "&amp;IF(G9 = "〇"," UNSIGNED","")&amp;IF(H9 = "〇"," ZEROFILL","")&amp;IF(F9 = "〇"," NOT NULL","")&amp;IF(J9 = "",""," DEFAULT "&amp;J9)&amp;" ,"</f>
-        <v>user_id VARCHAR(10)  NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K9" s="10"/>
+      <c r="L9" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="0" t="str">
+        <f aca="false">D9&amp;" "&amp;E9&amp;IF(L9 = "","","("&amp;L9&amp;")")&amp;IF(G9 = "〇"," UNSIGNED","")&amp;IF(H9 = "〇"," ZEROFILL","")&amp;IF(F9 = "〇"," NOT NULL","")&amp;IF(K9 = "",""," DEFAULT "&amp;K9)&amp;IF(I9 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>time_id VARCHAR(8) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3" t="n">
         <f aca="false">ROW()-3</f>
         <v>7</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="0" t="str">
+        <f aca="false">D10&amp;" "&amp;E10&amp;IF(L10 = "","","("&amp;L10&amp;")")&amp;IF(G10 = "〇"," UNSIGNED","")&amp;IF(H10 = "〇"," ZEROFILL","")&amp;IF(F10 = "〇"," NOT NULL","")&amp;IF(K10 = "",""," DEFAULT "&amp;K10)&amp;IF(I10 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>group_id VARCHAR(9) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8" t="n">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="0" t="str">
+        <f aca="false">D11&amp;" "&amp;E11&amp;IF(L11 = "","","("&amp;L11&amp;")")&amp;IF(G11 = "〇"," UNSIGNED","")&amp;IF(H11 = "〇"," ZEROFILL","")&amp;IF(F11 = "〇"," NOT NULL","")&amp;IF(K11 = "",""," DEFAULT "&amp;K11)&amp;IF(I11 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>user_id VARCHAR(10) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="N10" s="0" t="str">
-        <f aca="false">D10&amp;" "&amp;E10&amp;"("&amp;K10&amp;") "&amp;IF(G10 = "〇"," UNSIGNED","")&amp;IF(H10 = "〇"," ZEROFILL","")&amp;IF(F10 = "〇"," NOT NULL","")&amp;IF(J10 = "",""," DEFAULT "&amp;J10)&amp;" ,"</f>
-        <v>version SMALLINT()  UNSIGNED NOT NULL DEFAULT 0 ,</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="3" t="s">
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="O12" s="0" t="str">
+        <f aca="false">D12&amp;" "&amp;E12&amp;IF(L12 = "","","("&amp;L12&amp;")")&amp;IF(G12 = "〇"," UNSIGNED","")&amp;IF(H12 = "〇"," ZEROFILL","")&amp;IF(F12 = "〇"," NOT NULL","")&amp;IF(K12 = "",""," DEFAULT "&amp;K12)&amp;IF(I12 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>version SMALLINT UNSIGNED NOT NULL DEFAULT 0 ,</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" s="0" t="str">
-        <f aca="false">"PRIMARY KEY("&amp;D14&amp;"),"</f>
-        <v>PRIMARY KEY(group_id),</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="16" t="s">
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="0" t="str">
+        <f aca="false">"PRIMARY KEY("&amp;D16&amp;")"</f>
+        <v>PRIMARY KEY(acter_id)</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="N18" s="0" t="str">
-        <f aca="false">IF(C18 = "","","FOREIGN KEY("&amp;D18&amp;") REFERENCES "&amp;F18&amp;"("&amp;D18&amp;")")</f>
-        <v>FOREIGN KEY(opus_id) REFERENCES opus(opus_id)</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="8" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="N19" s="0" t="str">
-        <f aca="false">IF(C19 = "","","FOREIGN KEY("&amp;D19&amp;") REFERENCES "&amp;F19&amp;"("&amp;D19&amp;")")</f>
-        <v>FOREIGN KEY(time_id) REFERENCES time_mst(time_id)</v>
+        <v>11</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="18"/>
+      <c r="M20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="0" t="str">
+        <f aca="false">IF(C20 = "","",",FOREIGN KEY("&amp;D20&amp;") REFERENCES "&amp;F20&amp;"("&amp;M20&amp;")")</f>
+        <v>,FOREIGN KEY(opus_id) REFERENCES opus(opus_id)</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="18"/>
+      <c r="M21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" s="0" t="str">
+        <f aca="false">IF(C21 = "","",",FOREIGN KEY("&amp;D21&amp;") REFERENCES "&amp;F21&amp;"("&amp;M21&amp;")")</f>
+        <v>,FOREIGN KEY(time_id) REFERENCES time_mst(time_id)</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="18"/>
+      <c r="M22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="0" t="str">
+        <f aca="false">IF(C22 = "","",",FOREIGN KEY("&amp;D22&amp;") REFERENCES "&amp;F22&amp;"("&amp;M22&amp;")")</f>
+        <v>,FOREIGN KEY(group_id) REFERENCES group_mst(group_id)</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F23" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="N20" s="0" t="str">
-        <f aca="false">IF(C20 = "","","FOREIGN KEY("&amp;D20&amp;") REFERENCES "&amp;F20&amp;"("&amp;D20&amp;")")</f>
-        <v>FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="N22" s="0" t="s">
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="18"/>
+      <c r="M23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="0" t="str">
+        <f aca="false">IF(C23 = "","",",FOREIGN KEY("&amp;D23&amp;") REFERENCES "&amp;F23&amp;"("&amp;M23&amp;")")</f>
+        <v>,FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O24" s="0" t="str">
+        <f aca="false">IF(C24 = "","","FOREIGN KEY("&amp;D24&amp;") REFERENCES "&amp;F24&amp;"("&amp;D24&amp;")")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="19" t="s">
         <v>98</v>
       </c>
+      <c r="O25" s="0" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
+  <mergeCells count="10">
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="K23:L23"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E10" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E12" type="list">
       <formula1>マスタ!$B$3:$B$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:H10" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:I12" type="list">
       <formula1>"〇"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -35405,13 +35424,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:N17"/>
+  <dimension ref="B1:O27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -35421,19 +35440,25 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="53.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="39.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="53.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="39.66"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1" s="0" t="str">
+        <f aca="false">"/* "&amp;C2&amp;" */"</f>
+        <v>/* 関係 */</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -35445,12 +35470,13 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="N2" s="0" t="str">
-        <f aca="false">"/* "&amp;C2&amp;" */"</f>
-        <v>/* 作品マスタ */</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="2"/>
+      <c r="O2" s="0" t="str">
+        <f aca="false">"DROP TABLE IF EXISTS "&amp;D2&amp;";"</f>
+        <v>DROP TABLE IF EXISTS rel;</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -35472,21 +35498,24 @@
       <c r="H3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="0" t="str">
+      <c r="O3" s="0" t="str">
         <f aca="false">"CREATE TABLE "&amp;D2&amp;"("</f>
-        <v>CREATE TABLE opus(</v>
+        <v>CREATE TABLE rel(</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35495,10 +35524,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>23</v>
@@ -35508,19 +35537,22 @@
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="0" t="str">
-        <f aca="false">D4&amp;" "&amp;E4&amp;"("&amp;K4&amp;") "&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(J4 = "",""," DEFAULT "&amp;J4)&amp;" ,"</f>
-        <v>opus_id VARCHAR(8)  NOT NULL ,</v>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="0" t="str">
+        <f aca="false">D4&amp;" "&amp;E4&amp;IF(L4 = "","","("&amp;L4&amp;")")&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(K4 = "",""," DEFAULT "&amp;K4)&amp;IF(I4 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>rel_id VARCHAR(9) NOT NULL UNIQUE  ,</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35529,10 +35561,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
@@ -35542,17 +35574,20 @@
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="0" t="str">
-        <f aca="false">D5&amp;" "&amp;E5&amp;"("&amp;K5&amp;") "&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(J5 = "",""," DEFAULT "&amp;J5)&amp;" ,"</f>
-        <v>opus_name VARCHAR(100)  NOT NULL ,</v>
+      <c r="I5" s="15"/>
+      <c r="J5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="0" t="str">
+        <f aca="false">D5&amp;" "&amp;E5&amp;IF(L5 = "","","("&amp;L5&amp;")")&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(K5 = "",""," DEFAULT "&amp;K5)&amp;IF(I5 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>rel_mst_id VARCHAR(10) NOT NULL ,</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35561,153 +35596,505 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="I6" s="15"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="0" t="str">
-        <f aca="false">D6&amp;" "&amp;E6&amp;"("&amp;K6&amp;") "&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(J6 = "",""," DEFAULT "&amp;J6)&amp;" ,"</f>
-        <v>user_id VARCHAR(10)  NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="0" t="str">
+        <f aca="false">D6&amp;" "&amp;E6&amp;IF(L6 = "","","("&amp;L6&amp;")")&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(K6 = "",""," DEFAULT "&amp;K6)&amp;IF(I6 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>rel_mst_info VARCHAR(1200) ,</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="n">
         <f aca="false">ROW()-3</f>
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
+      <c r="C7" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="0" t="str">
+        <f aca="false">D7&amp;" "&amp;E7&amp;IF(L7 = "","","("&amp;L7&amp;")")&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(K7 = "",""," DEFAULT "&amp;K7)&amp;IF(I7 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>acter_id VARCHAR(8) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="n">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="0" t="str">
+        <f aca="false">D8&amp;" "&amp;E8&amp;IF(L8 = "","","("&amp;L8&amp;")")&amp;IF(G8 = "〇"," UNSIGNED","")&amp;IF(H8 = "〇"," ZEROFILL","")&amp;IF(F8 = "〇"," NOT NULL","")&amp;IF(K8 = "",""," DEFAULT "&amp;K8)&amp;IF(I8 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>target_id VARCHAR(8) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="0" t="str">
+        <f aca="false">D9&amp;" "&amp;E9&amp;IF(L9 = "","","("&amp;L9&amp;")")&amp;IF(G9 = "〇"," UNSIGNED","")&amp;IF(H9 = "〇"," ZEROFILL","")&amp;IF(F9 = "〇"," NOT NULL","")&amp;IF(K9 = "",""," DEFAULT "&amp;K9)&amp;IF(I9 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>opus_id VARCHAR(8) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="0" t="str">
+        <f aca="false">D10&amp;" "&amp;E10&amp;IF(L10 = "","","("&amp;L10&amp;")")&amp;IF(G10 = "〇"," UNSIGNED","")&amp;IF(H10 = "〇"," ZEROFILL","")&amp;IF(F10 = "〇"," NOT NULL","")&amp;IF(K10 = "",""," DEFAULT "&amp;K10)&amp;IF(I10 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>time_id VARCHAR(8) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="0" t="str">
+        <f aca="false">D11&amp;" "&amp;E11&amp;IF(L11 = "","","("&amp;L11&amp;")")&amp;IF(G11 = "〇"," UNSIGNED","")&amp;IF(H11 = "〇"," ZEROFILL","")&amp;IF(F11 = "〇"," NOT NULL","")&amp;IF(K11 = "",""," DEFAULT "&amp;K11)&amp;IF(I11 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>user_id VARCHAR(10) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="3" t="n">
+        <f aca="false">ROW()-3</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="N7" s="0" t="str">
-        <f aca="false">D7&amp;" "&amp;E7&amp;"("&amp;K7&amp;") "&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(J7 = "",""," DEFAULT "&amp;J7)&amp;" ,"</f>
-        <v>version SMALLINT()  UNSIGNED NOT NULL DEFAULT 0 ,</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="0" t="str">
-        <f aca="false">"PRIMARY KEY("&amp;D11&amp;"),"</f>
-        <v>PRIMARY KEY(opus_id),</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="O12" s="0" t="str">
+        <f aca="false">D12&amp;" "&amp;E12&amp;IF(L12 = "","","("&amp;L12&amp;")")&amp;IF(G12 = "〇"," UNSIGNED","")&amp;IF(H12 = "〇"," ZEROFILL","")&amp;IF(F12 = "〇"," NOT NULL","")&amp;IF(K12 = "",""," DEFAULT "&amp;K12)&amp;IF(I12 = "",""," UNIQUE ")&amp;" ,"</f>
+        <v>version SMALLINT UNSIGNED NOT NULL DEFAULT 0 ,</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="0" t="str">
+        <f aca="false">"PRIMARY KEY("&amp;D16&amp;")"</f>
+        <v>PRIMARY KEY(rel_id)</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="21"/>
+      <c r="M20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O20" s="0" t="str">
+        <f aca="false">IF(C20 = "","",",FOREIGN KEY("&amp;D20&amp;") REFERENCES "&amp;F20&amp;"("&amp;M20&amp;")")</f>
+        <v>,FOREIGN KEY(rel_mst_id) REFERENCES rel_mst(rel_mst_id)</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="22"/>
+      <c r="M21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="0" t="str">
+        <f aca="false">IF(C21 = "","",",FOREIGN KEY("&amp;D21&amp;") REFERENCES "&amp;F21&amp;"("&amp;M21&amp;")")</f>
+        <v>,FOREIGN KEY(acter_id) REFERENCES acter(acter_id)</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="21"/>
+      <c r="M22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="0" t="str">
+        <f aca="false">IF(C22 = "","",",FOREIGN KEY("&amp;D22&amp;") REFERENCES "&amp;F22&amp;"("&amp;M22&amp;")")</f>
+        <v>,FOREIGN KEY(target_id) REFERENCES acter(acter_id)</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="21"/>
+      <c r="M23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" s="0" t="str">
+        <f aca="false">IF(C23 = "","",",FOREIGN KEY("&amp;D23&amp;") REFERENCES "&amp;F23&amp;"("&amp;M23&amp;")")</f>
+        <v>,FOREIGN KEY(opus_id) REFERENCES opus(opus_id)</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="21"/>
+      <c r="M24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="0" t="str">
+        <f aca="false">IF(C24 = "","",",FOREIGN KEY("&amp;D24&amp;") REFERENCES "&amp;F24&amp;"("&amp;M24&amp;")")</f>
+        <v>,FOREIGN KEY(time_id) REFERENCES time_mst(time_id)</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F25" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="N15" s="0" t="str">
-        <f aca="false">IF(C15 = "","","FOREIGN KEY("&amp;D15&amp;") REFERENCES "&amp;F15&amp;"("&amp;D15&amp;")")</f>
-        <v>FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="N17" s="0" t="s">
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="21"/>
+      <c r="M25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="0" t="str">
+        <f aca="false">IF(C25 = "","",",FOREIGN KEY("&amp;D25&amp;") REFERENCES "&amp;F25&amp;"("&amp;M25&amp;")")</f>
+        <v>,FOREIGN KEY(user_id) REFERENCES cor_user(user_id)</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O26" s="0" t="str">
+        <f aca="false">IF(C26 = "","","FOREIGN KEY("&amp;D26&amp;") REFERENCES "&amp;F26&amp;"("&amp;D26&amp;")")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="19" t="s">
         <v>98</v>
       </c>
+      <c r="O27" s="0" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
+  <mergeCells count="14">
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:L25"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E7" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E12" type="list">
       <formula1>マスタ!$B$3:$B$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:H7" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:I12" type="list">
       <formula1>"〇"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -35733,19 +36120,19 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35753,31 +36140,31 @@
         <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="20" t="s">
-        <v>107</v>
+      <c r="B7" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35785,7 +36172,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/ゼミ用/02基本設計/テーブル定義書.xlsx
+++ b/ゼミ用/02基本設計/テーブル定義書.xlsx
@@ -33,13 +33,13 @@
     <t xml:space="preserve">DB名</t>
   </si>
   <si>
-    <t xml:space="preserve">correlation</t>
+    <t xml:space="preserve">dkgraph_correlation</t>
   </si>
   <si>
     <t xml:space="preserve">ユーザ名</t>
   </si>
   <si>
-    <t xml:space="preserve">exit_v1</t>
+    <t xml:space="preserve">dkgraph_exit</t>
   </si>
   <si>
     <t xml:space="preserve">pass</t>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:AA1068"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32739,7 +32739,7 @@
       <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33083,7 +33083,7 @@
       <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33439,7 +33439,7 @@
       <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33861,7 +33861,7 @@
       <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34289,7 +34289,7 @@
       <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34808,7 +34808,7 @@
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -35430,7 +35430,7 @@
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -36120,7 +36120,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">

--- a/ゼミ用/02基本設計/テーブル定義書.xlsx
+++ b/ゼミ用/02基本設計/テーブル定義書.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="112">
   <si>
     <t xml:space="preserve">DB名</t>
   </si>
@@ -686,7 +686,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">:relMst0001</t>
+      <t xml:space="preserve">:relmst0001</t>
     </r>
     <r>
       <rPr>
@@ -696,7 +696,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">～relMst</t>
+      <t xml:space="preserve">～relmst</t>
     </r>
     <r>
       <rPr>
@@ -808,6 +808,68 @@
   </si>
   <si>
     <t xml:space="preserve">);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">体系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:relMst0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">～relMst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">9999 , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">半角英数字のみ</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">型</t>
@@ -1152,8 +1214,8 @@
   </sheetPr>
   <dimension ref="A1:AA1068"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K47" activeCellId="0" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2558,7 +2620,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="n">
         <f aca="false">B34+1</f>
@@ -3030,7 +3092,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="n">
         <v>1</v>
@@ -32735,11 +32797,11 @@
   </sheetPr>
   <dimension ref="B1:O17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33079,11 +33141,11 @@
   </sheetPr>
   <dimension ref="B1:O17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33435,11 +33497,11 @@
   </sheetPr>
   <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33557,7 +33619,7 @@
         <v>10</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="O4" s="0" t="str">
         <f aca="false">D4&amp;" "&amp;E4&amp;IF(L4 = "","","("&amp;L4&amp;")")&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(K4 = "",""," DEFAULT "&amp;K4)&amp;IF(I4 = "",""," UNIQUE ")&amp;" ,"</f>
@@ -33857,11 +33919,11 @@
   </sheetPr>
   <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34285,11 +34347,11 @@
   </sheetPr>
   <dimension ref="B1:O22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34804,11 +34866,11 @@
   </sheetPr>
   <dimension ref="B1:O25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -35426,11 +35488,11 @@
   </sheetPr>
   <dimension ref="B1:O27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -35583,7 +35645,7 @@
         <v>10</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="O5" s="0" t="str">
         <f aca="false">D5&amp;" "&amp;E5&amp;IF(L5 = "","","("&amp;L5&amp;")")&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(K5 = "",""," DEFAULT "&amp;K5)&amp;IF(I5 = "",""," UNIQUE ")&amp;" ,"</f>
@@ -36116,23 +36178,23 @@
   </sheetPr>
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36140,31 +36202,31 @@
         <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36172,7 +36234,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/ゼミ用/02基本設計/テーブル定義書.xlsx
+++ b/ゼミ用/02基本設計/テーブル定義書.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="114">
   <si>
     <t xml:space="preserve">DB名</t>
   </si>
@@ -768,6 +768,15 @@
     <t xml:space="preserve">group_info</t>
   </si>
   <si>
+    <t xml:space="preserve">色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半角英数字</t>
+  </si>
+  <si>
     <t xml:space="preserve">作品マスタ</t>
   </si>
   <si>
@@ -787,9 +796,6 @@
   </si>
   <si>
     <t xml:space="preserve">UNIQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">半角英数字</t>
   </si>
   <si>
     <t xml:space="preserve">主キー</t>
@@ -1212,10 +1218,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AA1068"/>
+  <dimension ref="A1:AA1069"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K47" activeCellId="0" sqref="K47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3517,7 +3523,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
       <c r="B56" s="8" t="n">
         <f aca="false">B55+1</f>
@@ -3559,34 +3565,32 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
       <c r="B57" s="8" t="n">
         <f aca="false">B56+1</f>
         <v>4</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="C57" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="8"/>
       <c r="F57" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="6" t="s">
-        <v>49</v>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="J57" s="8"/>
+      <c r="K57" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -3605,17 +3609,17 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
       <c r="B58" s="8" t="n">
         <f aca="false">B57+1</f>
         <v>5</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>48</v>
@@ -3632,7 +3636,7 @@
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -3651,17 +3655,17 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
       <c r="B59" s="8" t="n">
         <f aca="false">B58+1</f>
         <v>6</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>48</v>
@@ -3674,11 +3678,11 @@
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="6" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -3697,31 +3701,35 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
       <c r="B60" s="8" t="n">
         <f aca="false">B59+1</f>
         <v>7</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8" t="s">
+      <c r="C60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H60" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -3741,16 +3749,29 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
+      <c r="B61" s="8" t="n">
+        <f aca="false">B60+1</f>
+        <v>8</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -3770,20 +3791,16 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -3801,38 +3818,22 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
-      <c r="B63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -3852,31 +3853,35 @@
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
-      <c r="B64" s="3" t="n">
-        <v>1</v>
+      <c r="B64" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J64" s="3"/>
-      <c r="K64" s="6" t="s">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -3898,16 +3903,17 @@
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="n">
-        <f aca="false">B64+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F65" s="3" t="s">
         <v>22</v>
       </c>
@@ -3916,11 +3922,11 @@
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="J65" s="3"/>
-      <c r="K65" s="5" t="s">
-        <v>26</v>
+      <c r="K65" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -3943,17 +3949,15 @@
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="n">
         <f aca="false">B65+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
         <v>22</v>
       </c>
@@ -3962,11 +3966,11 @@
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3"/>
-      <c r="K66" s="6" t="s">
-        <v>24</v>
+      <c r="K66" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -3985,31 +3989,35 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="n">
         <f aca="false">B66+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E67" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F67" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3" t="n">
+        <v>10</v>
+      </c>
       <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+      <c r="K67" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -4029,16 +4037,29 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
+      <c r="B68" s="3" t="n">
+        <f aca="false">B67+1</f>
+        <v>4</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -4062,7 +4083,7 @@
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
@@ -4132,19 +4153,29 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -4173,16 +4204,16 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -4196,7 +4227,7 @@
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
+      <c r="F75" s="13"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
@@ -4208,16 +4239,6 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
-      <c r="AA75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
@@ -4232,6 +4253,21 @@
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
       <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
@@ -4283,26 +4319,11 @@
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="2"/>
-      <c r="X80" s="2"/>
-      <c r="Y80" s="2"/>
-      <c r="Z80" s="2"/>
-      <c r="AA80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
@@ -4312,10 +4333,10 @@
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -4335,16 +4356,16 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -4393,16 +4414,16 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -4426,7 +4447,7 @@
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
+      <c r="F85" s="13"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
@@ -4515,10 +4536,10 @@
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -4544,10 +4565,10 @@
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -4567,16 +4588,16 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -4625,16 +4646,16 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -4658,7 +4679,7 @@
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
+      <c r="F93" s="13"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
@@ -4747,10 +4768,10 @@
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -4776,10 +4797,10 @@
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -4799,16 +4820,16 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -4857,16 +4878,16 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -4890,7 +4911,7 @@
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
+      <c r="F101" s="13"/>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
@@ -5008,10 +5029,10 @@
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
-      <c r="K105" s="14"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -5037,10 +5058,10 @@
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -5060,6 +5081,16 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -5079,16 +5110,6 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -5108,16 +5129,16 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -5141,7 +5162,7 @@
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
+      <c r="F110" s="13"/>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
@@ -5317,10 +5338,10 @@
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
-      <c r="K116" s="14"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -5346,10 +5367,10 @@
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="14"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -5369,6 +5390,16 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -5388,16 +5419,6 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -5417,16 +5438,16 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -5450,7 +5471,7 @@
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
+      <c r="F121" s="13"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
@@ -5539,10 +5560,10 @@
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="14"/>
-      <c r="K124" s="14"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -5568,10 +5589,10 @@
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="12"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="14"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -5591,16 +5612,16 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -5649,16 +5670,16 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="12"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -5682,7 +5703,7 @@
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
+      <c r="F129" s="13"/>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
@@ -5771,10 +5792,10 @@
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="14"/>
-      <c r="K132" s="14"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -5800,10 +5821,10 @@
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="12"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -5823,16 +5844,16 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -5881,16 +5902,16 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="12"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="12"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="12"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -5914,7 +5935,7 @@
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
-      <c r="F137" s="12"/>
+      <c r="F137" s="13"/>
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
@@ -6032,10 +6053,10 @@
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
       <c r="G141" s="12"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="14"/>
-      <c r="K141" s="14"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -6061,10 +6082,10 @@
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="12"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="12"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
+      <c r="J142" s="14"/>
+      <c r="K142" s="14"/>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -6084,16 +6105,16 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -7300,7 +7321,7 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
     </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -32704,7 +32725,35 @@
       <c r="Z1060" s="2"/>
       <c r="AA1060" s="2"/>
     </row>
-    <row r="1061" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1061" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1061" s="2"/>
+      <c r="B1061" s="2"/>
+      <c r="C1061" s="2"/>
+      <c r="D1061" s="2"/>
+      <c r="E1061" s="2"/>
+      <c r="F1061" s="2"/>
+      <c r="G1061" s="2"/>
+      <c r="H1061" s="2"/>
+      <c r="I1061" s="2"/>
+      <c r="J1061" s="2"/>
+      <c r="K1061" s="2"/>
+      <c r="L1061" s="2"/>
+      <c r="M1061" s="2"/>
+      <c r="N1061" s="2"/>
+      <c r="O1061" s="2"/>
+      <c r="P1061" s="2"/>
+      <c r="Q1061" s="2"/>
+      <c r="R1061" s="2"/>
+      <c r="S1061" s="2"/>
+      <c r="T1061" s="2"/>
+      <c r="U1061" s="2"/>
+      <c r="V1061" s="2"/>
+      <c r="W1061" s="2"/>
+      <c r="X1061" s="2"/>
+      <c r="Y1061" s="2"/>
+      <c r="Z1061" s="2"/>
+      <c r="AA1061" s="2"/>
+    </row>
     <row r="1062" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1063" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1064" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -32773,9 +32822,10 @@
     <row r="1127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G10 G14:G22 G26:G30 G34:G42 G46:G50 G54:G60 G64:G67" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G10 G14:G22 G26:G30 G34:G42 G46:G50 G54:G61 G65:G68" type="list">
       <formula1>マスタ!$B$3:$B$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -32801,7 +32851,7 @@
       <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -32864,13 +32914,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -32983,7 +33033,7 @@
         <v>100</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="O6" s="0" t="str">
         <f aca="false">D6&amp;" "&amp;E6&amp;IF(L6 = "","","("&amp;L6&amp;")")&amp;IF(G6 = "〇"," UNSIGNED","")&amp;IF(H6 = "〇"," ZEROFILL","")&amp;IF(F6 = "〇"," NOT NULL","")&amp;IF(K6 = "",""," DEFAULT "&amp;K6)&amp;IF(I6 = "",""," UNIQUE ")&amp;" ,"</f>
@@ -33025,7 +33075,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33050,7 +33100,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33061,10 +33111,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
@@ -33097,10 +33147,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -33145,7 +33195,7 @@
       <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33170,10 +33220,10 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -33208,13 +33258,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -33276,10 +33326,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
@@ -33373,7 +33423,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33398,7 +33448,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33409,10 +33459,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
@@ -33457,10 +33507,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -33501,7 +33551,7 @@
       <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33564,13 +33614,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -33619,7 +33669,7 @@
         <v>10</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O4" s="0" t="str">
         <f aca="false">D4&amp;" "&amp;E4&amp;IF(L4 = "","","("&amp;L4&amp;")")&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(K4 = "",""," DEFAULT "&amp;K4)&amp;IF(I4 = "",""," UNIQUE ")&amp;" ,"</f>
@@ -33760,7 +33810,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33785,7 +33835,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33796,10 +33846,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -33821,10 +33871,10 @@
         <v>47</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -33873,10 +33923,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -33923,7 +33973,7 @@
       <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33986,13 +34036,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -34186,7 +34236,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34211,7 +34261,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34222,10 +34272,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -34247,10 +34297,10 @@
         <v>47</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -34305,10 +34355,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -34351,7 +34401,7 @@
       <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34414,13 +34464,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -34680,7 +34730,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34705,7 +34755,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34716,10 +34766,10 @@
         <v>11</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -34741,10 +34791,10 @@
         <v>47</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -34822,10 +34872,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -34870,7 +34920,7 @@
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34933,13 +34983,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -35265,7 +35315,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35290,7 +35340,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35301,10 +35351,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -35326,10 +35376,10 @@
         <v>47</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -35442,10 +35492,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -35492,7 +35542,7 @@
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -35555,13 +35605,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -35645,7 +35695,7 @@
         <v>10</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O5" s="0" t="str">
         <f aca="false">D5&amp;" "&amp;E5&amp;IF(L5 = "","","("&amp;L5&amp;")")&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(K5 = "",""," DEFAULT "&amp;K5)&amp;IF(I5 = "",""," UNIQUE ")&amp;" ,"</f>
@@ -35893,7 +35943,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35918,7 +35968,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35929,10 +35979,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -36041,10 +36091,10 @@
         <v>47</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
@@ -36128,10 +36178,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -36182,19 +36232,19 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36202,31 +36252,31 @@
         <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36234,7 +36284,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/ゼミ用/02基本設計/テーブル定義書.xlsx
+++ b/ゼミ用/02基本設計/テーブル定義書.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="130">
   <si>
     <t xml:space="preserve">DB名</t>
   </si>
@@ -256,7 +256,7 @@
     <t xml:space="preserve">登場人物マスタ</t>
   </si>
   <si>
-    <t xml:space="preserve">acter</t>
+    <t xml:space="preserve">actor</t>
   </si>
   <si>
     <t xml:space="preserve">登場人物情報を管理するテーブル</t>
@@ -284,7 +284,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">acter_id</t>
+    <t xml:space="preserve">actor_id</t>
   </si>
   <si>
     <r>
@@ -315,7 +315,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">:acter001~acter999 , </t>
+      <t xml:space="preserve">:actor001~actor999 , </t>
     </r>
     <r>
       <rPr>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">登場人物名</t>
   </si>
   <si>
-    <t xml:space="preserve">acter_name</t>
+    <t xml:space="preserve">actor_name</t>
   </si>
   <si>
     <t xml:space="preserve">半角英数字のみ</t>
@@ -341,13 +341,13 @@
     <t xml:space="preserve">説明</t>
   </si>
   <si>
-    <t xml:space="preserve">acter_info</t>
+    <t xml:space="preserve">actor_info</t>
   </si>
   <si>
     <t xml:space="preserve">画像</t>
   </si>
   <si>
-    <t xml:space="preserve">acter_img</t>
+    <t xml:space="preserve">actor_img</t>
   </si>
   <si>
     <t xml:space="preserve">URL</t>
@@ -789,6 +789,39 @@
     <t xml:space="preserve">opus_name</t>
   </si>
   <si>
+    <t xml:space="preserve">汎用マスタ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">common_mst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">汎用ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">common_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDIUMINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">common_key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">値</t>
+  </si>
+  <si>
+    <t xml:space="preserve">common_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">common_info</t>
+  </si>
+  <si>
     <t xml:space="preserve">符号なし</t>
   </si>
   <si>
@@ -878,6 +911,63 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">acter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acter_id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">体系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:acter001~acter999 , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">半角英数字のみ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">acter_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acter_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acter_img</t>
+  </si>
+  <si>
     <t xml:space="preserve">型</t>
   </si>
   <si>
@@ -888,9 +978,6 @@
   </si>
   <si>
     <t xml:space="preserve">符号付きの範囲は -32768 から 32767 。符号なしの範囲は 0 から 65535 。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDIUMINT</t>
   </si>
   <si>
     <t xml:space="preserve">符号付きの範囲は -8388608 から 8388607 。 符号なしの範囲は 0 から 16777215 。</t>
@@ -1218,7 +1305,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AA1069"/>
+  <dimension ref="A1:AA1076"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -4108,16 +4195,20 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -4137,16 +4228,36 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
+      <c r="B71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -4166,16 +4277,32 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
+      <c r="B72" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K72" s="6"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -4185,16 +4312,29 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
+      <c r="B73" s="3" t="n">
+        <f aca="false">B72+1</f>
+        <v>2</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" s="3"/>
+      <c r="I73" s="8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="5"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -4204,16 +4344,29 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
+      <c r="B74" s="3" t="n">
+        <f aca="false">B73+1</f>
+        <v>3</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" s="3"/>
+      <c r="I74" s="8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="6"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -4223,22 +4376,43 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
+      <c r="B75" s="8" t="n">
+        <f aca="false">B74+1</f>
+        <v>4</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J75" s="8"/>
+      <c r="K75" s="5"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
@@ -4253,21 +4427,6 @@
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
-      <c r="AA76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
@@ -4319,11 +4478,26 @@
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
       <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
@@ -4333,10 +4507,10 @@
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -4356,16 +4530,16 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -4414,16 +4588,16 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -4447,7 +4621,7 @@
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
-      <c r="F85" s="13"/>
+      <c r="F85" s="12"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
@@ -4536,10 +4710,10 @@
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -4565,10 +4739,10 @@
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -4588,16 +4762,16 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -4646,16 +4820,16 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -4679,7 +4853,7 @@
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
-      <c r="F93" s="13"/>
+      <c r="F93" s="12"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
@@ -4768,10 +4942,10 @@
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -4797,10 +4971,10 @@
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -4820,16 +4994,16 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -4878,16 +5052,16 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -4911,7 +5085,7 @@
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
-      <c r="F101" s="13"/>
+      <c r="F101" s="12"/>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
@@ -5029,10 +5203,10 @@
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -5058,10 +5232,10 @@
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="14"/>
-      <c r="K106" s="14"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -5081,16 +5255,6 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -5110,6 +5274,16 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -5129,16 +5303,16 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -5162,7 +5336,7 @@
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
-      <c r="F110" s="13"/>
+      <c r="F110" s="12"/>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
@@ -5338,10 +5512,10 @@
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="14"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -5367,10 +5541,10 @@
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="14"/>
-      <c r="K117" s="14"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -5390,16 +5564,6 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -5419,6 +5583,16 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -5438,16 +5612,16 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -5471,7 +5645,7 @@
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
-      <c r="F121" s="13"/>
+      <c r="F121" s="12"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
@@ -5560,10 +5734,10 @@
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="12"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="12"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="14"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -5589,10 +5763,10 @@
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="14"/>
-      <c r="K125" s="14"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -5612,16 +5786,16 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
-      <c r="I126" s="12"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="12"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -5670,16 +5844,16 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -5703,7 +5877,7 @@
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
-      <c r="F129" s="13"/>
+      <c r="F129" s="12"/>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
@@ -5792,10 +5966,10 @@
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="12"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="14"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -5821,10 +5995,10 @@
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="14"/>
-      <c r="K133" s="14"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -5844,16 +6018,16 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="12"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -5902,16 +6076,16 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -5935,7 +6109,7 @@
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
-      <c r="F137" s="13"/>
+      <c r="F137" s="12"/>
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
@@ -6053,10 +6227,10 @@
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
       <c r="G141" s="12"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="12"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="14"/>
+      <c r="K141" s="14"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -6082,10 +6256,10 @@
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="14"/>
-      <c r="J142" s="14"/>
-      <c r="K142" s="14"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -6105,16 +6279,16 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="12"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="12"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="12"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -7321,7 +7495,7 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -32725,35 +32899,7 @@
       <c r="Z1060" s="2"/>
       <c r="AA1060" s="2"/>
     </row>
-    <row r="1061" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1061" s="2"/>
-      <c r="B1061" s="2"/>
-      <c r="C1061" s="2"/>
-      <c r="D1061" s="2"/>
-      <c r="E1061" s="2"/>
-      <c r="F1061" s="2"/>
-      <c r="G1061" s="2"/>
-      <c r="H1061" s="2"/>
-      <c r="I1061" s="2"/>
-      <c r="J1061" s="2"/>
-      <c r="K1061" s="2"/>
-      <c r="L1061" s="2"/>
-      <c r="M1061" s="2"/>
-      <c r="N1061" s="2"/>
-      <c r="O1061" s="2"/>
-      <c r="P1061" s="2"/>
-      <c r="Q1061" s="2"/>
-      <c r="R1061" s="2"/>
-      <c r="S1061" s="2"/>
-      <c r="T1061" s="2"/>
-      <c r="U1061" s="2"/>
-      <c r="V1061" s="2"/>
-      <c r="W1061" s="2"/>
-      <c r="X1061" s="2"/>
-      <c r="Y1061" s="2"/>
-      <c r="Z1061" s="2"/>
-      <c r="AA1061" s="2"/>
-    </row>
+    <row r="1061" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1062" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1063" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1064" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -32822,10 +32968,9 @@
     <row r="1127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G10 G14:G22 G26:G30 G34:G42 G46:G50 G54:G61 G65:G68" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G10 G14:G22 G26:G30 G34:G42 G46:G50 G54:G61 G65:G68 G72:G75" type="list">
       <formula1>マスタ!$B$3:$B$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -32851,7 +32996,7 @@
       <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -32914,13 +33059,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -33075,7 +33220,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33100,7 +33245,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33111,10 +33256,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
@@ -33147,10 +33292,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="19" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -33195,7 +33340,7 @@
       <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33258,13 +33403,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -33423,7 +33568,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33448,7 +33593,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33459,10 +33604,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
@@ -33507,10 +33652,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="19" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -33551,7 +33696,7 @@
       <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33614,13 +33759,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -33669,7 +33814,7 @@
         <v>10</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="O4" s="0" t="str">
         <f aca="false">D4&amp;" "&amp;E4&amp;IF(L4 = "","","("&amp;L4&amp;")")&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(K4 = "",""," DEFAULT "&amp;K4)&amp;IF(I4 = "",""," UNIQUE ")&amp;" ,"</f>
@@ -33810,7 +33955,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33835,7 +33980,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33846,10 +33991,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -33923,10 +34068,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="19" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -33973,7 +34118,7 @@
       <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34036,13 +34181,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -34236,7 +34381,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34261,7 +34406,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34272,10 +34417,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -34355,10 +34500,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="19" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -34401,7 +34546,7 @@
       <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34464,13 +34609,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -34730,7 +34875,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34755,7 +34900,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34766,10 +34911,10 @@
         <v>11</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -34872,10 +35017,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="19" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -34920,7 +35065,7 @@
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34948,7 +35093,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -34983,13 +35128,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -35017,7 +35162,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>23</v>
@@ -35038,7 +35183,7 @@
         <v>8</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="O4" s="0" t="str">
         <f aca="false">D4&amp;" "&amp;E4&amp;IF(L4 = "","","("&amp;L4&amp;")")&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(K4 = "",""," DEFAULT "&amp;K4)&amp;IF(I4 = "",""," UNIQUE ")&amp;" ,"</f>
@@ -35054,7 +35199,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
@@ -35087,7 +35232,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>23</v>
@@ -35118,7 +35263,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>23</v>
@@ -35315,7 +35460,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35331,7 +35476,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="O16" s="0" t="str">
         <f aca="false">"PRIMARY KEY("&amp;D16&amp;")"</f>
@@ -35340,7 +35485,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35351,10 +35496,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -35492,10 +35637,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="19" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -35542,7 +35687,7 @@
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -35605,13 +35750,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -35695,7 +35840,7 @@
         <v>10</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="O5" s="0" t="str">
         <f aca="false">D5&amp;" "&amp;E5&amp;IF(L5 = "","","("&amp;L5&amp;")")&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(K5 = "",""," DEFAULT "&amp;K5)&amp;IF(I5 = "",""," UNIQUE ")&amp;" ,"</f>
@@ -35742,7 +35887,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>23</v>
@@ -35761,7 +35906,7 @@
         <v>8</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="O7" s="0" t="str">
         <f aca="false">D7&amp;" "&amp;E7&amp;IF(L7 = "","","("&amp;L7&amp;")")&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(K7 = "",""," DEFAULT "&amp;K7)&amp;IF(I7 = "",""," UNIQUE ")&amp;" ,"</f>
@@ -35796,7 +35941,7 @@
         <v>8</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="O8" s="0" t="str">
         <f aca="false">D8&amp;" "&amp;E8&amp;IF(L8 = "","","("&amp;L8&amp;")")&amp;IF(G8 = "〇"," UNSIGNED","")&amp;IF(H8 = "〇"," ZEROFILL","")&amp;IF(F8 = "〇"," NOT NULL","")&amp;IF(K8 = "",""," DEFAULT "&amp;K8)&amp;IF(I8 = "",""," UNIQUE ")&amp;" ,"</f>
@@ -35943,7 +36088,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35968,7 +36113,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35979,10 +36124,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -36030,13 +36175,13 @@
         <v>35</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
@@ -36047,7 +36192,7 @@
       </c>
       <c r="L21" s="22"/>
       <c r="M21" s="3" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="O21" s="0" t="str">
         <f aca="false">IF(C21 = "","",",FOREIGN KEY("&amp;D21&amp;") REFERENCES "&amp;F21&amp;"("&amp;M21&amp;")")</f>
@@ -36065,7 +36210,7 @@
         <v>32</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
@@ -36076,7 +36221,7 @@
       </c>
       <c r="L22" s="21"/>
       <c r="M22" s="3" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="O22" s="0" t="str">
         <f aca="false">IF(C22 = "","",",FOREIGN KEY("&amp;D22&amp;") REFERENCES "&amp;F22&amp;"("&amp;M22&amp;")")</f>
@@ -36178,10 +36323,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="19" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -36232,19 +36377,19 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36252,31 +36397,31 @@
         <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="23" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36284,7 +36429,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/ゼミ用/02基本設計/テーブル定義書.xlsx
+++ b/ゼミ用/02基本設計/テーブル定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義書" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="133">
   <si>
     <t xml:space="preserve">DB名</t>
   </si>
@@ -789,6 +789,18 @@
     <t xml:space="preserve">opus_name</t>
   </si>
   <si>
+    <t xml:space="preserve">投稿フラグ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opus_flg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TINYINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0：未投稿、1：投稿中</t>
+  </si>
+  <si>
     <t xml:space="preserve">汎用マスタ</t>
   </si>
   <si>
@@ -969,9 +981,6 @@
   </si>
   <si>
     <t xml:space="preserve">型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TINYINT</t>
   </si>
   <si>
     <t xml:space="preserve">符号付きの範囲は -128 から 127 。符号なしの範囲は 0 から 255 。</t>
@@ -1305,9 +1314,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AA1076"/>
+  <dimension ref="A1:AA1077"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4032,7 +4041,7 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="n">
         <f aca="false">B65+1</f>
@@ -4076,34 +4085,32 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="n">
         <f aca="false">B66+1</f>
         <v>3</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3" t="n">
-        <v>10</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="6" t="s">
-        <v>24</v>
+      <c r="K67" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -4122,31 +4129,35 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
       <c r="B68" s="3" t="n">
         <f aca="false">B67+1</f>
         <v>4</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E68" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F68" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H68" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3" t="n">
+        <v>10</v>
+      </c>
       <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
+      <c r="K68" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -4166,16 +4177,29 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
+      <c r="B69" s="3" t="n">
+        <f aca="false">B68+1</f>
+        <v>5</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -4195,20 +4219,16 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -4228,36 +4248,20 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
-      <c r="B71" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -4277,44 +4281,57 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
-      <c r="B72" s="3" t="n">
-        <v>1</v>
+      <c r="B72" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H72" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="J72" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K72" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="n">
-        <f aca="false">B72+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>99</v>
@@ -4322,19 +4339,23 @@
       <c r="D73" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E73" s="3"/>
+      <c r="E73" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F73" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="8" t="n">
-        <v>1200</v>
-      </c>
-      <c r="J73" s="3"/>
-      <c r="K73" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="H73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K73" s="6"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -4346,13 +4367,13 @@
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="n">
         <f aca="false">B73+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
@@ -4366,7 +4387,7 @@
         <v>1200</v>
       </c>
       <c r="J74" s="3"/>
-      <c r="K74" s="6"/>
+      <c r="K74" s="5"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -4376,57 +4397,75 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
-      <c r="B75" s="8" t="n">
+      <c r="B75" s="3" t="n">
         <f aca="false">B74+1</f>
-        <v>4</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G75" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H75" s="8"/>
+      <c r="H75" s="3"/>
       <c r="I75" s="8" t="n">
         <v>1200</v>
       </c>
-      <c r="J75" s="8"/>
-      <c r="K75" s="5"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="6"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
-      <c r="AA75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
+      <c r="B76" s="8" t="n">
+        <f aca="false">B75+1</f>
+        <v>4</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J76" s="8"/>
+      <c r="K76" s="5"/>
       <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
@@ -4478,26 +4517,11 @@
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="2"/>
-      <c r="X80" s="2"/>
-      <c r="Y80" s="2"/>
-      <c r="Z80" s="2"/>
-      <c r="AA80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
@@ -4507,10 +4531,10 @@
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -4530,16 +4554,16 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -4588,16 +4612,16 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -4621,7 +4645,7 @@
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
+      <c r="F85" s="13"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
@@ -4710,10 +4734,10 @@
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -4739,10 +4763,10 @@
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -4762,16 +4786,16 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -4820,16 +4844,16 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -4853,7 +4877,7 @@
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
+      <c r="F93" s="13"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
@@ -4942,10 +4966,10 @@
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -4971,10 +4995,10 @@
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -4994,16 +5018,16 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -5052,16 +5076,16 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -5085,7 +5109,7 @@
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
+      <c r="F101" s="13"/>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
@@ -5203,10 +5227,10 @@
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
-      <c r="K105" s="14"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -5232,10 +5256,10 @@
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -5255,6 +5279,16 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -5274,16 +5308,6 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -5303,16 +5327,16 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -5336,7 +5360,7 @@
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
+      <c r="F110" s="13"/>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
@@ -5512,10 +5536,10 @@
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
-      <c r="K116" s="14"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -5541,10 +5565,10 @@
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="14"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -5564,6 +5588,16 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -5583,16 +5617,6 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -5612,16 +5636,16 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -5645,7 +5669,7 @@
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
+      <c r="F121" s="13"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
@@ -5734,10 +5758,10 @@
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="14"/>
-      <c r="K124" s="14"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -5763,10 +5787,10 @@
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="12"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="14"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -5786,16 +5810,16 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -5844,16 +5868,16 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="12"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -5877,7 +5901,7 @@
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
+      <c r="F129" s="13"/>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
@@ -5966,10 +5990,10 @@
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="14"/>
-      <c r="K132" s="14"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -5995,10 +6019,10 @@
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="12"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -6018,16 +6042,16 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -6076,16 +6100,16 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="12"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="12"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="12"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -6109,7 +6133,7 @@
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
-      <c r="F137" s="12"/>
+      <c r="F137" s="13"/>
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
@@ -6227,10 +6251,10 @@
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
       <c r="G141" s="12"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="14"/>
-      <c r="K141" s="14"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -6256,10 +6280,10 @@
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="12"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="12"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
+      <c r="J142" s="14"/>
+      <c r="K142" s="14"/>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -6279,16 +6303,16 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -7495,7 +7519,7 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
     </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -32899,7 +32923,35 @@
       <c r="Z1060" s="2"/>
       <c r="AA1060" s="2"/>
     </row>
-    <row r="1061" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1061" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1061" s="2"/>
+      <c r="B1061" s="2"/>
+      <c r="C1061" s="2"/>
+      <c r="D1061" s="2"/>
+      <c r="E1061" s="2"/>
+      <c r="F1061" s="2"/>
+      <c r="G1061" s="2"/>
+      <c r="H1061" s="2"/>
+      <c r="I1061" s="2"/>
+      <c r="J1061" s="2"/>
+      <c r="K1061" s="2"/>
+      <c r="L1061" s="2"/>
+      <c r="M1061" s="2"/>
+      <c r="N1061" s="2"/>
+      <c r="O1061" s="2"/>
+      <c r="P1061" s="2"/>
+      <c r="Q1061" s="2"/>
+      <c r="R1061" s="2"/>
+      <c r="S1061" s="2"/>
+      <c r="T1061" s="2"/>
+      <c r="U1061" s="2"/>
+      <c r="V1061" s="2"/>
+      <c r="W1061" s="2"/>
+      <c r="X1061" s="2"/>
+      <c r="Y1061" s="2"/>
+      <c r="Z1061" s="2"/>
+      <c r="AA1061" s="2"/>
+    </row>
     <row r="1062" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1063" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1064" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -32968,9 +33020,10 @@
     <row r="1127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G10 G14:G22 G26:G30 G34:G42 G46:G50 G54:G61 G65:G68 G72:G75" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G10 G14:G22 G26:G30 G34:G42 G46:G50 G54:G61 G65:G69 G73:G76" type="list">
       <formula1>マスタ!$B$3:$B$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -32996,7 +33049,7 @@
       <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33059,13 +33112,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -33220,7 +33273,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33245,7 +33298,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33256,10 +33309,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
@@ -33292,10 +33345,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -33340,7 +33393,7 @@
       <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33403,13 +33456,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -33568,7 +33621,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33593,7 +33646,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33604,10 +33657,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
@@ -33652,10 +33705,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -33696,7 +33749,7 @@
       <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -33759,13 +33812,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -33814,7 +33867,7 @@
         <v>10</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O4" s="0" t="str">
         <f aca="false">D4&amp;" "&amp;E4&amp;IF(L4 = "","","("&amp;L4&amp;")")&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(K4 = "",""," DEFAULT "&amp;K4)&amp;IF(I4 = "",""," UNIQUE ")&amp;" ,"</f>
@@ -33955,7 +34008,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33980,7 +34033,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33991,10 +34044,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -34068,10 +34121,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -34118,7 +34171,7 @@
       <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34181,13 +34234,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -34381,7 +34434,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34406,7 +34459,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34417,10 +34470,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -34500,10 +34553,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -34546,7 +34599,7 @@
       <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -34609,13 +34662,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -34875,7 +34928,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34900,7 +34953,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34911,10 +34964,10 @@
         <v>11</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -35017,10 +35070,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -35065,7 +35118,7 @@
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -35093,7 +35146,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -35128,13 +35181,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -35162,7 +35215,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>23</v>
@@ -35183,7 +35236,7 @@
         <v>8</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O4" s="0" t="str">
         <f aca="false">D4&amp;" "&amp;E4&amp;IF(L4 = "","","("&amp;L4&amp;")")&amp;IF(G4 = "〇"," UNSIGNED","")&amp;IF(H4 = "〇"," ZEROFILL","")&amp;IF(F4 = "〇"," NOT NULL","")&amp;IF(K4 = "",""," DEFAULT "&amp;K4)&amp;IF(I4 = "",""," UNIQUE ")&amp;" ,"</f>
@@ -35199,7 +35252,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
@@ -35232,7 +35285,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>23</v>
@@ -35263,7 +35316,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>23</v>
@@ -35460,7 +35513,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35476,7 +35529,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O16" s="0" t="str">
         <f aca="false">"PRIMARY KEY("&amp;D16&amp;")"</f>
@@ -35485,7 +35538,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35496,10 +35549,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -35637,10 +35690,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -35687,7 +35740,7 @@
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
@@ -35750,13 +35803,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -35840,7 +35893,7 @@
         <v>10</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O5" s="0" t="str">
         <f aca="false">D5&amp;" "&amp;E5&amp;IF(L5 = "","","("&amp;L5&amp;")")&amp;IF(G5 = "〇"," UNSIGNED","")&amp;IF(H5 = "〇"," ZEROFILL","")&amp;IF(F5 = "〇"," NOT NULL","")&amp;IF(K5 = "",""," DEFAULT "&amp;K5)&amp;IF(I5 = "",""," UNIQUE ")&amp;" ,"</f>
@@ -35887,7 +35940,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>23</v>
@@ -35906,7 +35959,7 @@
         <v>8</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O7" s="0" t="str">
         <f aca="false">D7&amp;" "&amp;E7&amp;IF(L7 = "","","("&amp;L7&amp;")")&amp;IF(G7 = "〇"," UNSIGNED","")&amp;IF(H7 = "〇"," ZEROFILL","")&amp;IF(F7 = "〇"," NOT NULL","")&amp;IF(K7 = "",""," DEFAULT "&amp;K7)&amp;IF(I7 = "",""," UNIQUE ")&amp;" ,"</f>
@@ -35941,7 +35994,7 @@
         <v>8</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O8" s="0" t="str">
         <f aca="false">D8&amp;" "&amp;E8&amp;IF(L8 = "","","("&amp;L8&amp;")")&amp;IF(G8 = "〇"," UNSIGNED","")&amp;IF(H8 = "〇"," ZEROFILL","")&amp;IF(F8 = "〇"," NOT NULL","")&amp;IF(K8 = "",""," DEFAULT "&amp;K8)&amp;IF(I8 = "",""," UNIQUE ")&amp;" ,"</f>
@@ -36088,7 +36141,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36113,7 +36166,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36124,10 +36177,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -36175,13 +36228,13 @@
         <v>35</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
@@ -36192,7 +36245,7 @@
       </c>
       <c r="L21" s="22"/>
       <c r="M21" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O21" s="0" t="str">
         <f aca="false">IF(C21 = "","",",FOREIGN KEY("&amp;D21&amp;") REFERENCES "&amp;F21&amp;"("&amp;M21&amp;")")</f>
@@ -36210,7 +36263,7 @@
         <v>32</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
@@ -36221,7 +36274,7 @@
       </c>
       <c r="L22" s="21"/>
       <c r="M22" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O22" s="0" t="str">
         <f aca="false">IF(C22 = "","",",FOREIGN KEY("&amp;D22&amp;") REFERENCES "&amp;F22&amp;"("&amp;M22&amp;")")</f>
@@ -36323,10 +36376,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -36373,23 +36426,27 @@
   </sheetPr>
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="118.73"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36397,31 +36454,31 @@
         <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36429,7 +36486,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
